--- a/Code/Results/Cases/Case_3_29/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_29/res_line/loading_percent.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.24135577352617</v>
+        <v>18.24135577352622</v>
       </c>
       <c r="C2">
-        <v>10.63989735970075</v>
+        <v>10.63989735970055</v>
       </c>
       <c r="D2">
-        <v>7.840156512377362</v>
+        <v>7.840156512377329</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>63.64392554622314</v>
+        <v>63.64392554622339</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,16 +433,16 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>9.812442415625751</v>
+        <v>9.812442415625689</v>
       </c>
       <c r="J2">
-        <v>15.45791329627815</v>
+        <v>15.45791329627811</v>
       </c>
       <c r="K2">
-        <v>8.476646832803333</v>
+        <v>8.476646832803324</v>
       </c>
       <c r="L2">
-        <v>13.54926017316564</v>
+        <v>13.54926017316569</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.87169686506785</v>
+        <v>16.87169686506786</v>
       </c>
       <c r="C3">
-        <v>9.878205801682626</v>
+        <v>9.878205801682675</v>
       </c>
       <c r="D3">
-        <v>7.4765856646872</v>
+        <v>7.476585664687121</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>59.92518662853994</v>
+        <v>59.92518662853972</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,16 +471,16 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>9.494210389323934</v>
+        <v>9.494210389323964</v>
       </c>
       <c r="J3">
-        <v>14.32154547553849</v>
+        <v>14.32154547553852</v>
       </c>
       <c r="K3">
-        <v>8.089542917949959</v>
+        <v>8.089542917950004</v>
       </c>
       <c r="L3">
-        <v>12.57720093924665</v>
+        <v>12.57720093924662</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.99462053830407</v>
+        <v>15.9946205383041</v>
       </c>
       <c r="C4">
-        <v>9.39222558785991</v>
+        <v>9.392225587860205</v>
       </c>
       <c r="D4">
-        <v>7.249149909755512</v>
+        <v>7.249149909755539</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>57.57909232831155</v>
+        <v>57.57909232831157</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,16 +509,16 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>9.299433881877038</v>
+        <v>9.299433881877189</v>
       </c>
       <c r="J4">
-        <v>13.59330494857636</v>
+        <v>13.59330494857644</v>
       </c>
       <c r="K4">
-        <v>7.852697751214266</v>
+        <v>7.852697751214296</v>
       </c>
       <c r="L4">
-        <v>11.95366799141421</v>
+        <v>11.95366799141417</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.62788133112691</v>
+        <v>15.62788133112692</v>
       </c>
       <c r="C5">
         <v>9.189399377934528</v>
       </c>
       <c r="D5">
-        <v>7.155406390046696</v>
+        <v>7.155406390046595</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>56.60743056977384</v>
+        <v>56.60743056977394</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,13 +547,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>9.220222721642685</v>
+        <v>9.220222721642655</v>
       </c>
       <c r="J5">
-        <v>13.28862410152152</v>
+        <v>13.28862410152156</v>
       </c>
       <c r="K5">
-        <v>7.756464281284154</v>
+        <v>7.756464281284146</v>
       </c>
       <c r="L5">
         <v>11.69267377470211</v>
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.5664149249153</v>
+        <v>15.56641492491536</v>
       </c>
       <c r="C6">
-        <v>9.155426237870815</v>
+        <v>9.155426237870726</v>
       </c>
       <c r="D6">
-        <v>7.139776407103969</v>
+        <v>7.139776407103982</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>56.44515347479282</v>
+        <v>56.44515347479303</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>9.207079924648289</v>
+        <v>9.207079924648344</v>
       </c>
       <c r="J6">
-        <v>13.23754713286922</v>
+        <v>13.23754713286927</v>
       </c>
       <c r="K6">
-        <v>7.740504402222738</v>
+        <v>7.740504402222784</v>
       </c>
       <c r="L6">
         <v>11.64891397357454</v>
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.98971261559134</v>
+        <v>15.98971261559146</v>
       </c>
       <c r="C7">
-        <v>9.389509806370276</v>
+        <v>9.389509806370333</v>
       </c>
       <c r="D7">
-        <v>7.247889944696446</v>
+        <v>7.247889944696416</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>57.5660509685523</v>
+        <v>57.56605096855272</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,16 +623,16 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>9.298364941310826</v>
+        <v>9.298364941310782</v>
       </c>
       <c r="J7">
-        <v>13.58922828112837</v>
+        <v>13.5892282811285</v>
       </c>
       <c r="K7">
-        <v>7.851398656224527</v>
+        <v>7.851398656224524</v>
       </c>
       <c r="L7">
-        <v>11.95017630545915</v>
+        <v>11.95017630545926</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,16 +643,16 @@
         <v>17.77643088478969</v>
       </c>
       <c r="C8">
-        <v>10.38094628929402</v>
+        <v>10.38094628929387</v>
       </c>
       <c r="D8">
-        <v>7.715660862331934</v>
+        <v>7.715660862331927</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>62.37477000044969</v>
+        <v>62.37477000045011</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>9.702587507481658</v>
+        <v>9.702587507481686</v>
       </c>
       <c r="J8">
         <v>15.07226998833543</v>
       </c>
       <c r="K8">
-        <v>8.343035365763257</v>
+        <v>8.343035365763267</v>
       </c>
       <c r="L8">
         <v>13.21951260427626</v>
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.00683471178007</v>
+        <v>21.00683471178001</v>
       </c>
       <c r="C9">
-        <v>12.18953564373669</v>
+        <v>12.18953564373661</v>
       </c>
       <c r="D9">
-        <v>8.600860695449828</v>
+        <v>8.600860695449846</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>71.31079551631096</v>
+        <v>71.31079551631106</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,16 +699,16 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>10.50064749796708</v>
+        <v>10.50064749796705</v>
       </c>
       <c r="J9">
-        <v>17.75089753089782</v>
+        <v>17.7508975308978</v>
       </c>
       <c r="K9">
-        <v>9.311983539419799</v>
+        <v>9.311983539419785</v>
       </c>
       <c r="L9">
-        <v>15.50658812365405</v>
+        <v>15.50658812365403</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.23524621170266</v>
+        <v>23.23524621170272</v>
       </c>
       <c r="C10">
-        <v>13.45129475239887</v>
+        <v>13.45129475239878</v>
       </c>
       <c r="D10">
-        <v>9.235027103296597</v>
+        <v>9.235027103296662</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>77.59867466896566</v>
+        <v>77.5986746689655</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,16 +737,16 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>11.09228110196909</v>
+        <v>11.09228110196906</v>
       </c>
       <c r="J10">
-        <v>19.59878974154672</v>
+        <v>19.59878974154673</v>
       </c>
       <c r="K10">
-        <v>10.26560104002023</v>
+        <v>10.26560104002022</v>
       </c>
       <c r="L10">
-        <v>17.07915971111576</v>
+        <v>17.07915971111574</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.22351339603438</v>
+        <v>24.22351339603429</v>
       </c>
       <c r="C11">
-        <v>14.0150560380987</v>
+        <v>14.01505603809865</v>
       </c>
       <c r="D11">
-        <v>9.521279565231943</v>
+        <v>9.521279565231886</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>80.40938508801408</v>
+        <v>80.40938508801392</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,13 +775,13 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>11.36349157145609</v>
+        <v>11.36349157145606</v>
       </c>
       <c r="J11">
-        <v>20.41870923263534</v>
+        <v>20.4187092326353</v>
       </c>
       <c r="K11">
-        <v>10.68914719995272</v>
+        <v>10.6891471999527</v>
       </c>
       <c r="L11">
         <v>17.77532214840429</v>
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.59469487871567</v>
+        <v>24.59469487871558</v>
       </c>
       <c r="C12">
-        <v>14.22750844516375</v>
+        <v>14.22750844516357</v>
       </c>
       <c r="D12">
-        <v>9.629502950941278</v>
+        <v>9.629502950941399</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>81.46784259820875</v>
+        <v>81.46784259820923</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,16 +813,16 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>11.46660512159179</v>
+        <v>11.4666051215918</v>
       </c>
       <c r="J12">
-        <v>20.72675397084772</v>
+        <v>20.72675397084762</v>
       </c>
       <c r="K12">
-        <v>10.8480245956648</v>
+        <v>10.84802459566483</v>
       </c>
       <c r="L12">
-        <v>18.03659641812355</v>
+        <v>18.03659641812352</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.51487926476206</v>
+        <v>24.51487926476204</v>
       </c>
       <c r="C13">
-        <v>14.18179103872049</v>
+        <v>14.18179103872036</v>
       </c>
       <c r="D13">
-        <v>9.606200086027812</v>
+        <v>9.606200086027686</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>81.24012347334363</v>
+        <v>81.24012347334293</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,16 +851,16 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>11.44437722664614</v>
+        <v>11.44437722664606</v>
       </c>
       <c r="J13">
-        <v>20.66051002671847</v>
+        <v>20.66051002671842</v>
       </c>
       <c r="K13">
-        <v>10.81387037510124</v>
+        <v>10.81387037510125</v>
       </c>
       <c r="L13">
-        <v>17.98042332600597</v>
+        <v>17.98042332600595</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.25410805267653</v>
+        <v>24.25410805267655</v>
       </c>
       <c r="C14">
-        <v>14.03255250007412</v>
+        <v>14.03255250007408</v>
       </c>
       <c r="D14">
-        <v>9.530185675592492</v>
+        <v>9.530185675592348</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>80.49657481893092</v>
+        <v>80.49657481893043</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,16 +889,16 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>11.37196574019873</v>
+        <v>11.37196574019872</v>
       </c>
       <c r="J14">
-        <v>20.44409777097954</v>
+        <v>20.44409777097953</v>
       </c>
       <c r="K14">
-        <v>10.7022468737477</v>
+        <v>10.70224687374773</v>
       </c>
       <c r="L14">
-        <v>17.79686174498049</v>
+        <v>17.7968617449805</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.0940003362485</v>
+        <v>24.09400033624852</v>
       </c>
       <c r="C15">
-        <v>13.94101961658207</v>
+        <v>13.94101961658211</v>
       </c>
       <c r="D15">
-        <v>9.483607005402115</v>
+        <v>9.483607005402162</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>80.04040476109805</v>
+        <v>80.04040476109773</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -930,13 +930,13 @@
         <v>11.32766929420074</v>
       </c>
       <c r="J15">
-        <v>20.3112386383635</v>
+        <v>20.31123863836355</v>
       </c>
       <c r="K15">
-        <v>10.63368545139995</v>
+        <v>10.63368545139993</v>
       </c>
       <c r="L15">
-        <v>17.68413284232645</v>
+        <v>17.68413284232643</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.17019784218274</v>
+        <v>23.17019784218292</v>
       </c>
       <c r="C16">
-        <v>13.41428159883058</v>
+        <v>13.41428159883042</v>
       </c>
       <c r="D16">
-        <v>9.216286572895926</v>
+        <v>9.216286572896005</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>77.41408716830853</v>
+        <v>77.414087168309</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>11.07460748413339</v>
+        <v>11.07460748413345</v>
       </c>
       <c r="J16">
-        <v>19.54483325630513</v>
+        <v>19.54483325630522</v>
       </c>
       <c r="K16">
-        <v>10.23769586760798</v>
+        <v>10.23769586760795</v>
       </c>
       <c r="L16">
-        <v>17.03331118565815</v>
+        <v>17.0333111856582</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.59735458083367</v>
+        <v>22.59735458083366</v>
       </c>
       <c r="C17">
-        <v>13.08881453258365</v>
+        <v>13.08881453258348</v>
       </c>
       <c r="D17">
-        <v>9.051814765088125</v>
+        <v>9.051814765088105</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>75.79098262988158</v>
+        <v>75.79098262988117</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,16 +1003,16 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>10.9199630516358</v>
+        <v>10.91996305163577</v>
       </c>
       <c r="J17">
-        <v>19.06972001328183</v>
+        <v>19.06972001328175</v>
       </c>
       <c r="K17">
-        <v>9.991807941935557</v>
+        <v>9.991807941935503</v>
       </c>
       <c r="L17">
-        <v>16.62940687793291</v>
+        <v>16.62940687793287</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.26543292439305</v>
+        <v>22.26543292439311</v>
       </c>
       <c r="C18">
-        <v>12.90062217043745</v>
+        <v>12.90062217043732</v>
       </c>
       <c r="D18">
-        <v>8.956993815060658</v>
+        <v>8.956993815060631</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>74.85264598565387</v>
+        <v>74.85264598565374</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,16 +1041,16 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>10.83120200336791</v>
+        <v>10.8312020033679</v>
       </c>
       <c r="J18">
-        <v>18.79446252072962</v>
+        <v>18.79446252072965</v>
       </c>
       <c r="K18">
-        <v>9.849216183584208</v>
+        <v>9.849216183584186</v>
       </c>
       <c r="L18">
-        <v>16.39525524126498</v>
+        <v>16.39525524126501</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.15261461630616</v>
+        <v>22.15261461630637</v>
       </c>
       <c r="C19">
-        <v>12.83672097293003</v>
+        <v>12.83672097293001</v>
       </c>
       <c r="D19">
-        <v>8.92484723979064</v>
+        <v>8.924847239790667</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>74.53408966969222</v>
+        <v>74.53408966969243</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,16 +1079,16 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>10.8011781581299</v>
+        <v>10.80117815812992</v>
       </c>
       <c r="J19">
-        <v>18.70090932418735</v>
+        <v>18.7009093241875</v>
       </c>
       <c r="K19">
-        <v>9.800730500639689</v>
+        <v>9.800730500639636</v>
       </c>
       <c r="L19">
-        <v>16.31564858234936</v>
+        <v>16.31564858234941</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.65858294013166</v>
+        <v>22.65858294013184</v>
       </c>
       <c r="C20">
-        <v>13.12356084061897</v>
+        <v>13.123560840619</v>
       </c>
       <c r="D20">
-        <v>9.069345013693386</v>
+        <v>9.069345013693537</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>75.96425060846036</v>
+        <v>75.96425060846087</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,16 +1117,16 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>10.93640522162433</v>
+        <v>10.93640522162443</v>
       </c>
       <c r="J20">
-        <v>19.12049847932639</v>
+        <v>19.12049847932654</v>
       </c>
       <c r="K20">
-        <v>10.01810192809471</v>
+        <v>10.0181019280947</v>
       </c>
       <c r="L20">
-        <v>16.67259047903719</v>
+        <v>16.67259047903727</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.33078037219048</v>
+        <v>24.33078037219055</v>
       </c>
       <c r="C21">
-        <v>14.076411576648</v>
+        <v>14.07641157664779</v>
       </c>
       <c r="D21">
-        <v>9.552516308824849</v>
+        <v>9.552516308824814</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>80.71512144740525</v>
+        <v>80.71512144740534</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,16 +1155,16 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>11.39322247071576</v>
+        <v>11.39322247071573</v>
       </c>
       <c r="J21">
-        <v>20.50772480031155</v>
+        <v>20.50772480031154</v>
       </c>
       <c r="K21">
-        <v>10.73507225638316</v>
+        <v>10.73507225638314</v>
       </c>
       <c r="L21">
-        <v>17.85083826439094</v>
+        <v>17.85083826439099</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.40622565449664</v>
+        <v>25.40622565449659</v>
       </c>
       <c r="C22">
-        <v>14.69340787252276</v>
+        <v>14.6934078725229</v>
       </c>
       <c r="D22">
-        <v>9.867379802750696</v>
+        <v>9.867379802750813</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>83.78656022704871</v>
+        <v>83.78656022704887</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,16 +1193,16 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>11.69426228576831</v>
+        <v>11.69426228576835</v>
       </c>
       <c r="J22">
-        <v>21.4004521574862</v>
+        <v>21.40045215748619</v>
       </c>
       <c r="K22">
-        <v>11.19499488441193</v>
+        <v>11.19499488441195</v>
       </c>
       <c r="L22">
-        <v>18.60745855941379</v>
+        <v>18.60745855941377</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,16 +1213,16 @@
         <v>24.83360441480403</v>
       </c>
       <c r="C23">
-        <v>14.36446381243053</v>
+        <v>14.36446381243041</v>
       </c>
       <c r="D23">
-        <v>9.699355744070287</v>
+        <v>9.69935574407036</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>82.14983622979432</v>
+        <v>82.14983622979469</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,16 +1231,16 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>11.533316532582</v>
+        <v>11.53331653258199</v>
       </c>
       <c r="J23">
-        <v>20.92505591567233</v>
+        <v>20.92505591567232</v>
       </c>
       <c r="K23">
-        <v>10.95022644505476</v>
+        <v>10.9502264450548</v>
       </c>
       <c r="L23">
-        <v>18.20470793204839</v>
+        <v>18.20470793204844</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.63090969908466</v>
+        <v>22.63090969908471</v>
       </c>
       <c r="C24">
-        <v>13.10785542113696</v>
+        <v>13.1078554211368</v>
       </c>
       <c r="D24">
-        <v>9.061420420785165</v>
+        <v>9.061420420785074</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>75.88593241708527</v>
+        <v>75.88593241708531</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,16 +1269,16 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>10.92897126948726</v>
+        <v>10.92897126948731</v>
       </c>
       <c r="J24">
-        <v>19.09754814142808</v>
+        <v>19.09754814142801</v>
       </c>
       <c r="K24">
-        <v>10.00621825795841</v>
+        <v>10.00621825795833</v>
       </c>
       <c r="L24">
-        <v>16.65307325099928</v>
+        <v>16.65307325099924</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.16015872016555</v>
+        <v>20.16015872016548</v>
       </c>
       <c r="C25">
-        <v>11.71331058666835</v>
+        <v>11.71331058666863</v>
       </c>
       <c r="D25">
-        <v>8.364566544941553</v>
+        <v>8.364566544941535</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>68.94469874817571</v>
+        <v>68.94469874817578</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,16 +1307,16 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>10.28404086603752</v>
+        <v>10.28404086603756</v>
       </c>
       <c r="J25">
-        <v>17.04895029015546</v>
+        <v>17.04895029015549</v>
       </c>
       <c r="K25">
-        <v>9.049470256083442</v>
+        <v>9.049470256083433</v>
       </c>
       <c r="L25">
-        <v>14.90804106498788</v>
+        <v>14.9080410649879</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_29/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_29/res_line/loading_percent.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.24135577352622</v>
+        <v>18.24135577352617</v>
       </c>
       <c r="C2">
-        <v>10.63989735970055</v>
+        <v>10.63989735970075</v>
       </c>
       <c r="D2">
-        <v>7.840156512377329</v>
+        <v>7.840156512377362</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>63.64392554622339</v>
+        <v>63.64392554622314</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,16 +433,16 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>9.812442415625689</v>
+        <v>9.812442415625751</v>
       </c>
       <c r="J2">
-        <v>15.45791329627811</v>
+        <v>15.45791329627815</v>
       </c>
       <c r="K2">
-        <v>8.476646832803324</v>
+        <v>8.476646832803333</v>
       </c>
       <c r="L2">
-        <v>13.54926017316569</v>
+        <v>13.54926017316564</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.87169686506786</v>
+        <v>16.87169686506785</v>
       </c>
       <c r="C3">
-        <v>9.878205801682675</v>
+        <v>9.878205801682626</v>
       </c>
       <c r="D3">
-        <v>7.476585664687121</v>
+        <v>7.4765856646872</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>59.92518662853972</v>
+        <v>59.92518662853994</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,16 +471,16 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>9.494210389323964</v>
+        <v>9.494210389323934</v>
       </c>
       <c r="J3">
-        <v>14.32154547553852</v>
+        <v>14.32154547553849</v>
       </c>
       <c r="K3">
-        <v>8.089542917950004</v>
+        <v>8.089542917949959</v>
       </c>
       <c r="L3">
-        <v>12.57720093924662</v>
+        <v>12.57720093924665</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.9946205383041</v>
+        <v>15.99462053830407</v>
       </c>
       <c r="C4">
-        <v>9.392225587860205</v>
+        <v>9.39222558785991</v>
       </c>
       <c r="D4">
-        <v>7.249149909755539</v>
+        <v>7.249149909755512</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>57.57909232831157</v>
+        <v>57.57909232831155</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,16 +509,16 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>9.299433881877189</v>
+        <v>9.299433881877038</v>
       </c>
       <c r="J4">
-        <v>13.59330494857644</v>
+        <v>13.59330494857636</v>
       </c>
       <c r="K4">
-        <v>7.852697751214296</v>
+        <v>7.852697751214266</v>
       </c>
       <c r="L4">
-        <v>11.95366799141417</v>
+        <v>11.95366799141421</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.62788133112692</v>
+        <v>15.62788133112691</v>
       </c>
       <c r="C5">
         <v>9.189399377934528</v>
       </c>
       <c r="D5">
-        <v>7.155406390046595</v>
+        <v>7.155406390046696</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>56.60743056977394</v>
+        <v>56.60743056977384</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,13 +547,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>9.220222721642655</v>
+        <v>9.220222721642685</v>
       </c>
       <c r="J5">
-        <v>13.28862410152156</v>
+        <v>13.28862410152152</v>
       </c>
       <c r="K5">
-        <v>7.756464281284146</v>
+        <v>7.756464281284154</v>
       </c>
       <c r="L5">
         <v>11.69267377470211</v>
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.56641492491536</v>
+        <v>15.5664149249153</v>
       </c>
       <c r="C6">
-        <v>9.155426237870726</v>
+        <v>9.155426237870815</v>
       </c>
       <c r="D6">
-        <v>7.139776407103982</v>
+        <v>7.139776407103969</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>56.44515347479303</v>
+        <v>56.44515347479282</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>9.207079924648344</v>
+        <v>9.207079924648289</v>
       </c>
       <c r="J6">
-        <v>13.23754713286927</v>
+        <v>13.23754713286922</v>
       </c>
       <c r="K6">
-        <v>7.740504402222784</v>
+        <v>7.740504402222738</v>
       </c>
       <c r="L6">
         <v>11.64891397357454</v>
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.98971261559146</v>
+        <v>15.98971261559134</v>
       </c>
       <c r="C7">
-        <v>9.389509806370333</v>
+        <v>9.389509806370276</v>
       </c>
       <c r="D7">
-        <v>7.247889944696416</v>
+        <v>7.247889944696446</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>57.56605096855272</v>
+        <v>57.5660509685523</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,16 +623,16 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>9.298364941310782</v>
+        <v>9.298364941310826</v>
       </c>
       <c r="J7">
-        <v>13.5892282811285</v>
+        <v>13.58922828112837</v>
       </c>
       <c r="K7">
-        <v>7.851398656224524</v>
+        <v>7.851398656224527</v>
       </c>
       <c r="L7">
-        <v>11.95017630545926</v>
+        <v>11.95017630545915</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,16 +643,16 @@
         <v>17.77643088478969</v>
       </c>
       <c r="C8">
-        <v>10.38094628929387</v>
+        <v>10.38094628929402</v>
       </c>
       <c r="D8">
-        <v>7.715660862331927</v>
+        <v>7.715660862331934</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>62.37477000045011</v>
+        <v>62.37477000044969</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>9.702587507481686</v>
+        <v>9.702587507481658</v>
       </c>
       <c r="J8">
         <v>15.07226998833543</v>
       </c>
       <c r="K8">
-        <v>8.343035365763267</v>
+        <v>8.343035365763257</v>
       </c>
       <c r="L8">
         <v>13.21951260427626</v>
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.00683471178001</v>
+        <v>21.00683471178007</v>
       </c>
       <c r="C9">
-        <v>12.18953564373661</v>
+        <v>12.18953564373669</v>
       </c>
       <c r="D9">
-        <v>8.600860695449846</v>
+        <v>8.600860695449828</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>71.31079551631106</v>
+        <v>71.31079551631096</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,16 +699,16 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>10.50064749796705</v>
+        <v>10.50064749796708</v>
       </c>
       <c r="J9">
-        <v>17.7508975308978</v>
+        <v>17.75089753089782</v>
       </c>
       <c r="K9">
-        <v>9.311983539419785</v>
+        <v>9.311983539419799</v>
       </c>
       <c r="L9">
-        <v>15.50658812365403</v>
+        <v>15.50658812365405</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.23524621170272</v>
+        <v>23.23524621170266</v>
       </c>
       <c r="C10">
-        <v>13.45129475239878</v>
+        <v>13.45129475239887</v>
       </c>
       <c r="D10">
-        <v>9.235027103296662</v>
+        <v>9.235027103296597</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>77.5986746689655</v>
+        <v>77.59867466896566</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,16 +737,16 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>11.09228110196906</v>
+        <v>11.09228110196909</v>
       </c>
       <c r="J10">
-        <v>19.59878974154673</v>
+        <v>19.59878974154672</v>
       </c>
       <c r="K10">
-        <v>10.26560104002022</v>
+        <v>10.26560104002023</v>
       </c>
       <c r="L10">
-        <v>17.07915971111574</v>
+        <v>17.07915971111576</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.22351339603429</v>
+        <v>24.22351339603438</v>
       </c>
       <c r="C11">
-        <v>14.01505603809865</v>
+        <v>14.0150560380987</v>
       </c>
       <c r="D11">
-        <v>9.521279565231886</v>
+        <v>9.521279565231943</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>80.40938508801392</v>
+        <v>80.40938508801408</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,13 +775,13 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>11.36349157145606</v>
+        <v>11.36349157145609</v>
       </c>
       <c r="J11">
-        <v>20.4187092326353</v>
+        <v>20.41870923263534</v>
       </c>
       <c r="K11">
-        <v>10.6891471999527</v>
+        <v>10.68914719995272</v>
       </c>
       <c r="L11">
         <v>17.77532214840429</v>
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.59469487871558</v>
+        <v>24.59469487871567</v>
       </c>
       <c r="C12">
-        <v>14.22750844516357</v>
+        <v>14.22750844516375</v>
       </c>
       <c r="D12">
-        <v>9.629502950941399</v>
+        <v>9.629502950941278</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>81.46784259820923</v>
+        <v>81.46784259820875</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,16 +813,16 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>11.4666051215918</v>
+        <v>11.46660512159179</v>
       </c>
       <c r="J12">
-        <v>20.72675397084762</v>
+        <v>20.72675397084772</v>
       </c>
       <c r="K12">
-        <v>10.84802459566483</v>
+        <v>10.8480245956648</v>
       </c>
       <c r="L12">
-        <v>18.03659641812352</v>
+        <v>18.03659641812355</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.51487926476204</v>
+        <v>24.51487926476206</v>
       </c>
       <c r="C13">
-        <v>14.18179103872036</v>
+        <v>14.18179103872049</v>
       </c>
       <c r="D13">
-        <v>9.606200086027686</v>
+        <v>9.606200086027812</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>81.24012347334293</v>
+        <v>81.24012347334363</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,16 +851,16 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>11.44437722664606</v>
+        <v>11.44437722664614</v>
       </c>
       <c r="J13">
-        <v>20.66051002671842</v>
+        <v>20.66051002671847</v>
       </c>
       <c r="K13">
-        <v>10.81387037510125</v>
+        <v>10.81387037510124</v>
       </c>
       <c r="L13">
-        <v>17.98042332600595</v>
+        <v>17.98042332600597</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.25410805267655</v>
+        <v>24.25410805267653</v>
       </c>
       <c r="C14">
-        <v>14.03255250007408</v>
+        <v>14.03255250007412</v>
       </c>
       <c r="D14">
-        <v>9.530185675592348</v>
+        <v>9.530185675592492</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>80.49657481893043</v>
+        <v>80.49657481893092</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,16 +889,16 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>11.37196574019872</v>
+        <v>11.37196574019873</v>
       </c>
       <c r="J14">
-        <v>20.44409777097953</v>
+        <v>20.44409777097954</v>
       </c>
       <c r="K14">
-        <v>10.70224687374773</v>
+        <v>10.7022468737477</v>
       </c>
       <c r="L14">
-        <v>17.7968617449805</v>
+        <v>17.79686174498049</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.09400033624852</v>
+        <v>24.0940003362485</v>
       </c>
       <c r="C15">
-        <v>13.94101961658211</v>
+        <v>13.94101961658207</v>
       </c>
       <c r="D15">
-        <v>9.483607005402162</v>
+        <v>9.483607005402115</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>80.04040476109773</v>
+        <v>80.04040476109805</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -930,13 +930,13 @@
         <v>11.32766929420074</v>
       </c>
       <c r="J15">
-        <v>20.31123863836355</v>
+        <v>20.3112386383635</v>
       </c>
       <c r="K15">
-        <v>10.63368545139993</v>
+        <v>10.63368545139995</v>
       </c>
       <c r="L15">
-        <v>17.68413284232643</v>
+        <v>17.68413284232645</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.17019784218292</v>
+        <v>23.17019784218274</v>
       </c>
       <c r="C16">
-        <v>13.41428159883042</v>
+        <v>13.41428159883058</v>
       </c>
       <c r="D16">
-        <v>9.216286572896005</v>
+        <v>9.216286572895926</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>77.414087168309</v>
+        <v>77.41408716830853</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>11.07460748413345</v>
+        <v>11.07460748413339</v>
       </c>
       <c r="J16">
-        <v>19.54483325630522</v>
+        <v>19.54483325630513</v>
       </c>
       <c r="K16">
-        <v>10.23769586760795</v>
+        <v>10.23769586760798</v>
       </c>
       <c r="L16">
-        <v>17.0333111856582</v>
+        <v>17.03331118565815</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.59735458083366</v>
+        <v>22.59735458083367</v>
       </c>
       <c r="C17">
-        <v>13.08881453258348</v>
+        <v>13.08881453258365</v>
       </c>
       <c r="D17">
-        <v>9.051814765088105</v>
+        <v>9.051814765088125</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>75.79098262988117</v>
+        <v>75.79098262988158</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,16 +1003,16 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>10.91996305163577</v>
+        <v>10.9199630516358</v>
       </c>
       <c r="J17">
-        <v>19.06972001328175</v>
+        <v>19.06972001328183</v>
       </c>
       <c r="K17">
-        <v>9.991807941935503</v>
+        <v>9.991807941935557</v>
       </c>
       <c r="L17">
-        <v>16.62940687793287</v>
+        <v>16.62940687793291</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.26543292439311</v>
+        <v>22.26543292439305</v>
       </c>
       <c r="C18">
-        <v>12.90062217043732</v>
+        <v>12.90062217043745</v>
       </c>
       <c r="D18">
-        <v>8.956993815060631</v>
+        <v>8.956993815060658</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>74.85264598565374</v>
+        <v>74.85264598565387</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,16 +1041,16 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>10.8312020033679</v>
+        <v>10.83120200336791</v>
       </c>
       <c r="J18">
-        <v>18.79446252072965</v>
+        <v>18.79446252072962</v>
       </c>
       <c r="K18">
-        <v>9.849216183584186</v>
+        <v>9.849216183584208</v>
       </c>
       <c r="L18">
-        <v>16.39525524126501</v>
+        <v>16.39525524126498</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.15261461630637</v>
+        <v>22.15261461630616</v>
       </c>
       <c r="C19">
-        <v>12.83672097293001</v>
+        <v>12.83672097293003</v>
       </c>
       <c r="D19">
-        <v>8.924847239790667</v>
+        <v>8.92484723979064</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>74.53408966969243</v>
+        <v>74.53408966969222</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,16 +1079,16 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>10.80117815812992</v>
+        <v>10.8011781581299</v>
       </c>
       <c r="J19">
-        <v>18.7009093241875</v>
+        <v>18.70090932418735</v>
       </c>
       <c r="K19">
-        <v>9.800730500639636</v>
+        <v>9.800730500639689</v>
       </c>
       <c r="L19">
-        <v>16.31564858234941</v>
+        <v>16.31564858234936</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.65858294013184</v>
+        <v>22.65858294013166</v>
       </c>
       <c r="C20">
-        <v>13.123560840619</v>
+        <v>13.12356084061897</v>
       </c>
       <c r="D20">
-        <v>9.069345013693537</v>
+        <v>9.069345013693386</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>75.96425060846087</v>
+        <v>75.96425060846036</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,16 +1117,16 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>10.93640522162443</v>
+        <v>10.93640522162433</v>
       </c>
       <c r="J20">
-        <v>19.12049847932654</v>
+        <v>19.12049847932639</v>
       </c>
       <c r="K20">
-        <v>10.0181019280947</v>
+        <v>10.01810192809471</v>
       </c>
       <c r="L20">
-        <v>16.67259047903727</v>
+        <v>16.67259047903719</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.33078037219055</v>
+        <v>24.33078037219048</v>
       </c>
       <c r="C21">
-        <v>14.07641157664779</v>
+        <v>14.076411576648</v>
       </c>
       <c r="D21">
-        <v>9.552516308824814</v>
+        <v>9.552516308824849</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>80.71512144740534</v>
+        <v>80.71512144740525</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,16 +1155,16 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>11.39322247071573</v>
+        <v>11.39322247071576</v>
       </c>
       <c r="J21">
-        <v>20.50772480031154</v>
+        <v>20.50772480031155</v>
       </c>
       <c r="K21">
-        <v>10.73507225638314</v>
+        <v>10.73507225638316</v>
       </c>
       <c r="L21">
-        <v>17.85083826439099</v>
+        <v>17.85083826439094</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.40622565449659</v>
+        <v>25.40622565449664</v>
       </c>
       <c r="C22">
-        <v>14.6934078725229</v>
+        <v>14.69340787252276</v>
       </c>
       <c r="D22">
-        <v>9.867379802750813</v>
+        <v>9.867379802750696</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>83.78656022704887</v>
+        <v>83.78656022704871</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,16 +1193,16 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>11.69426228576835</v>
+        <v>11.69426228576831</v>
       </c>
       <c r="J22">
-        <v>21.40045215748619</v>
+        <v>21.4004521574862</v>
       </c>
       <c r="K22">
-        <v>11.19499488441195</v>
+        <v>11.19499488441193</v>
       </c>
       <c r="L22">
-        <v>18.60745855941377</v>
+        <v>18.60745855941379</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,16 +1213,16 @@
         <v>24.83360441480403</v>
       </c>
       <c r="C23">
-        <v>14.36446381243041</v>
+        <v>14.36446381243053</v>
       </c>
       <c r="D23">
-        <v>9.69935574407036</v>
+        <v>9.699355744070287</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>82.14983622979469</v>
+        <v>82.14983622979432</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,16 +1231,16 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>11.53331653258199</v>
+        <v>11.533316532582</v>
       </c>
       <c r="J23">
-        <v>20.92505591567232</v>
+        <v>20.92505591567233</v>
       </c>
       <c r="K23">
-        <v>10.9502264450548</v>
+        <v>10.95022644505476</v>
       </c>
       <c r="L23">
-        <v>18.20470793204844</v>
+        <v>18.20470793204839</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.63090969908471</v>
+        <v>22.63090969908466</v>
       </c>
       <c r="C24">
-        <v>13.1078554211368</v>
+        <v>13.10785542113696</v>
       </c>
       <c r="D24">
-        <v>9.061420420785074</v>
+        <v>9.061420420785165</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>75.88593241708531</v>
+        <v>75.88593241708527</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,16 +1269,16 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>10.92897126948731</v>
+        <v>10.92897126948726</v>
       </c>
       <c r="J24">
-        <v>19.09754814142801</v>
+        <v>19.09754814142808</v>
       </c>
       <c r="K24">
-        <v>10.00621825795833</v>
+        <v>10.00621825795841</v>
       </c>
       <c r="L24">
-        <v>16.65307325099924</v>
+        <v>16.65307325099928</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.16015872016548</v>
+        <v>20.16015872016555</v>
       </c>
       <c r="C25">
-        <v>11.71331058666863</v>
+        <v>11.71331058666835</v>
       </c>
       <c r="D25">
-        <v>8.364566544941535</v>
+        <v>8.364566544941553</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>68.94469874817578</v>
+        <v>68.94469874817571</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,16 +1307,16 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>10.28404086603756</v>
+        <v>10.28404086603752</v>
       </c>
       <c r="J25">
-        <v>17.04895029015549</v>
+        <v>17.04895029015546</v>
       </c>
       <c r="K25">
-        <v>9.049470256083433</v>
+        <v>9.049470256083442</v>
       </c>
       <c r="L25">
-        <v>14.9080410649879</v>
+        <v>14.90804106498788</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_29/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_29/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.24135577352617</v>
+        <v>18.13087963940227</v>
       </c>
       <c r="C2">
-        <v>10.63989735970075</v>
+        <v>10.4574330633153</v>
       </c>
       <c r="D2">
-        <v>7.840156512377362</v>
+        <v>7.936516732507766</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>63.64392554622314</v>
+        <v>63.77066705099751</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.085248706810515</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>9.812442415625751</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>15.45791329627815</v>
+        <v>9.773811819283708</v>
       </c>
       <c r="K2">
-        <v>8.476646832803333</v>
+        <v>15.31567179718232</v>
       </c>
       <c r="L2">
-        <v>13.54926017316564</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>8.455617410094417</v>
+      </c>
+      <c r="M2">
+        <v>13.48394541947319</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.87169686506785</v>
+        <v>16.77013003342492</v>
       </c>
       <c r="C3">
-        <v>9.878205801682626</v>
+        <v>9.697854152403092</v>
       </c>
       <c r="D3">
-        <v>7.4765856646872</v>
+        <v>7.579779588362647</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>59.92518662853994</v>
+        <v>60.08829070798461</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2.098903752385778</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>9.494210389323934</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>14.32154547553849</v>
+        <v>9.455207480170586</v>
       </c>
       <c r="K3">
-        <v>8.089542917949959</v>
+        <v>14.18383782510825</v>
       </c>
       <c r="L3">
-        <v>12.57720093924665</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>8.068224275338688</v>
+      </c>
+      <c r="M3">
+        <v>12.51429746145946</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.99462053830407</v>
+        <v>15.89902802547188</v>
       </c>
       <c r="C4">
-        <v>9.39222558785991</v>
+        <v>9.213003943613828</v>
       </c>
       <c r="D4">
-        <v>7.249149909755512</v>
+        <v>7.35685005571372</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>57.57909232831155</v>
+        <v>57.76654674827795</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.107412557249717</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>9.299433881877038</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>13.59330494857636</v>
+        <v>9.260125274627161</v>
       </c>
       <c r="K4">
-        <v>7.852697751214266</v>
+        <v>13.45843162884724</v>
       </c>
       <c r="L4">
-        <v>11.95366799141421</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>7.831107665195278</v>
+      </c>
+      <c r="M4">
+        <v>11.89221538983258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.62788133112691</v>
+        <v>15.53486451630567</v>
       </c>
       <c r="C5">
-        <v>9.189399377934528</v>
+        <v>9.010593586884861</v>
       </c>
       <c r="D5">
-        <v>7.155406390046696</v>
+        <v>7.265021215683267</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>56.60743056977384</v>
+        <v>56.80534098945543</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2.110916282489817</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>9.220222721642685</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>13.28862410152152</v>
+        <v>9.180771613278935</v>
       </c>
       <c r="K5">
-        <v>7.756464281284154</v>
+        <v>13.15492125289002</v>
       </c>
       <c r="L5">
-        <v>11.69267377470211</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>7.73474129023626</v>
+      </c>
+      <c r="M5">
+        <v>11.69142948182182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.5664149249153</v>
+        <v>15.47383478813274</v>
       </c>
       <c r="C6">
-        <v>9.155426237870815</v>
+        <v>8.976686699253374</v>
       </c>
       <c r="D6">
-        <v>7.139776407103969</v>
+        <v>7.24971389030261</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>56.44515347479282</v>
+        <v>56.64483296290219</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.11150040359374</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>9.207079924648289</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>13.23754713286922</v>
+        <v>9.167604113851215</v>
       </c>
       <c r="K6">
-        <v>7.740504402222738</v>
+        <v>13.10403964518925</v>
       </c>
       <c r="L6">
-        <v>11.64891397357454</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>7.718758035678872</v>
+      </c>
+      <c r="M6">
+        <v>11.66426932211411</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.98971261559134</v>
+        <v>15.89415424760486</v>
       </c>
       <c r="C7">
-        <v>9.389509806370276</v>
+        <v>9.210293955666447</v>
       </c>
       <c r="D7">
-        <v>7.247889944696446</v>
+        <v>7.355615595580914</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>57.5660509685523</v>
+        <v>57.75364421316267</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.10745965641884</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>9.298364941310826</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>13.58922828112837</v>
+        <v>9.259054482905585</v>
       </c>
       <c r="K7">
-        <v>7.851398656224527</v>
+        <v>13.45437068089862</v>
       </c>
       <c r="L7">
-        <v>11.95017630545915</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>7.829806866278591</v>
+      </c>
+      <c r="M7">
+        <v>11.88873161556971</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.77643088478969</v>
+        <v>17.66893014864362</v>
       </c>
       <c r="C8">
-        <v>10.38094628929402</v>
+        <v>10.19924400562781</v>
       </c>
       <c r="D8">
-        <v>7.715660862331934</v>
+        <v>7.81431338537956</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>62.37477000044969</v>
+        <v>62.51364451498051</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2.089934291696309</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>9.702587507481658</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>15.07226998833543</v>
+        <v>9.663845425162993</v>
       </c>
       <c r="K8">
-        <v>8.343035365763257</v>
+        <v>14.93158308698514</v>
       </c>
       <c r="L8">
-        <v>13.21951260427626</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>8.321926481739725</v>
+      </c>
+      <c r="M8">
+        <v>13.15503618426631</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.00683471178007</v>
+        <v>20.8793538715789</v>
       </c>
       <c r="C9">
-        <v>12.18953564373669</v>
+        <v>12.00167262726015</v>
       </c>
       <c r="D9">
-        <v>8.600860695449828</v>
+        <v>8.68412716705674</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>71.31079551631096</v>
+        <v>71.36900810637972</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2.05629847747656</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>10.50064749796708</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>17.75089753089782</v>
+        <v>10.4623401530217</v>
       </c>
       <c r="K9">
-        <v>9.311983539419799</v>
+        <v>17.59902594944623</v>
       </c>
       <c r="L9">
-        <v>15.50658812365405</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>9.302189497071033</v>
+      </c>
+      <c r="M9">
+        <v>15.43585413373855</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.23524621170266</v>
+        <v>23.09446986509966</v>
       </c>
       <c r="C10">
-        <v>13.45129475239887</v>
+        <v>13.25807236437574</v>
       </c>
       <c r="D10">
-        <v>9.235027103296597</v>
+        <v>9.308323751060604</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>77.59867466896566</v>
+        <v>77.6049251547101</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>2.031615164324897</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>11.09228110196909</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>19.59878974154672</v>
+        <v>11.05377427362078</v>
       </c>
       <c r="K10">
-        <v>10.26560104002023</v>
+        <v>19.4385762420763</v>
       </c>
       <c r="L10">
-        <v>17.07915971111576</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>10.25763790973366</v>
+      </c>
+      <c r="M10">
+        <v>17.00347465724179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.22351339603438</v>
+        <v>24.07683366096767</v>
       </c>
       <c r="C11">
-        <v>14.0150560380987</v>
+        <v>13.81917102328261</v>
       </c>
       <c r="D11">
-        <v>9.521279565231943</v>
+        <v>9.590285291856958</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>80.40938508801408</v>
+        <v>80.39314207485316</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>2.020278457610212</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>11.36349157145609</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>20.41870923263534</v>
+        <v>11.32475303518494</v>
       </c>
       <c r="K11">
-        <v>10.68914719995272</v>
+        <v>20.25458940600689</v>
       </c>
       <c r="L11">
-        <v>17.77532214840429</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>10.68002352358236</v>
+      </c>
+      <c r="M11">
+        <v>17.6972519900404</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.59469487871567</v>
+        <v>24.4457859942028</v>
       </c>
       <c r="C12">
-        <v>14.22750844516375</v>
+        <v>14.03057659524239</v>
       </c>
       <c r="D12">
-        <v>9.629502950941278</v>
+        <v>9.696913956941582</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>81.46784259820875</v>
+        <v>81.4432037964007</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>2.015958380770877</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>11.46660512159179</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>20.72675397084772</v>
+        <v>11.4277555572577</v>
       </c>
       <c r="K12">
-        <v>10.8480245956648</v>
+        <v>20.56112941233997</v>
       </c>
       <c r="L12">
-        <v>18.03659641812355</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>10.83844793508093</v>
+      </c>
+      <c r="M12">
+        <v>17.95759742123911</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.51487926476206</v>
+        <v>24.36645044090444</v>
       </c>
       <c r="C13">
-        <v>14.18179103872049</v>
+        <v>13.98508648486471</v>
       </c>
       <c r="D13">
-        <v>9.606200086027812</v>
+        <v>9.67395329432988</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>81.24012347334363</v>
+        <v>81.21728817948092</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>2.016890199799003</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>11.44437722664614</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>20.66051002671847</v>
+        <v>11.40555266583943</v>
       </c>
       <c r="K13">
-        <v>10.81387037510124</v>
+        <v>20.4952108510076</v>
       </c>
       <c r="L13">
-        <v>17.98042332600597</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>10.80439194491216</v>
+      </c>
+      <c r="M13">
+        <v>17.90162563712662</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.25410805267653</v>
+        <v>24.10724488816942</v>
       </c>
       <c r="C14">
-        <v>14.03255250007412</v>
+        <v>13.83658217896561</v>
       </c>
       <c r="D14">
-        <v>9.530185675592492</v>
+        <v>9.599059631892214</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>80.49657481893092</v>
+        <v>80.47963890178382</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>2.019923659561581</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>11.37196574019873</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>20.44409777097954</v>
+        <v>11.33321855615849</v>
       </c>
       <c r="K14">
-        <v>10.7022468737477</v>
+        <v>20.27985472326576</v>
       </c>
       <c r="L14">
-        <v>17.79686174498049</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>10.69308622616337</v>
+      </c>
+      <c r="M14">
+        <v>17.71871572899281</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.0940003362485</v>
+        <v>23.94809654076823</v>
       </c>
       <c r="C15">
-        <v>13.94101961658207</v>
+        <v>13.74549378518636</v>
       </c>
       <c r="D15">
-        <v>9.483607005402115</v>
+        <v>9.553171211989154</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>80.04040476109805</v>
+        <v>80.02709689517556</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>2.021777830885383</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>11.32766929420074</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>20.3112386383635</v>
+        <v>11.28896637131397</v>
       </c>
       <c r="K15">
-        <v>10.63368545139995</v>
+        <v>20.14763885635191</v>
       </c>
       <c r="L15">
-        <v>17.68413284232645</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>10.62471756590545</v>
+      </c>
+      <c r="M15">
+        <v>17.60638242733025</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.17019784218274</v>
+        <v>23.02980901841416</v>
       </c>
       <c r="C16">
-        <v>13.41428159883058</v>
+        <v>13.22122821948903</v>
       </c>
       <c r="D16">
-        <v>9.216286572895926</v>
+        <v>9.289868159657539</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>77.41408716830853</v>
+        <v>77.42182719243641</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>2.032352927429232</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>11.07460748413339</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>19.54483325630513</v>
+        <v>11.03611271998467</v>
       </c>
       <c r="K16">
-        <v>10.23769586760798</v>
+        <v>19.38487204718037</v>
       </c>
       <c r="L16">
-        <v>17.03331118565815</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>10.22980691920912</v>
+      </c>
+      <c r="M16">
+        <v>16.95777881281432</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.59735458083367</v>
+        <v>22.46037641082342</v>
       </c>
       <c r="C17">
-        <v>13.08881453258365</v>
+        <v>12.89721667577529</v>
       </c>
       <c r="D17">
-        <v>9.051814765088125</v>
+        <v>9.127920278554983</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>75.79098262988158</v>
+        <v>75.81189960545383</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>2.0388051175195</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>10.9199630516358</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>19.06972001328183</v>
+        <v>10.88155794750838</v>
       </c>
       <c r="K17">
-        <v>9.991807941935557</v>
+        <v>18.91195639521891</v>
       </c>
       <c r="L17">
-        <v>16.62940687793291</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>9.984561167184363</v>
+      </c>
+      <c r="M17">
+        <v>16.55519707926935</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.26543292439305</v>
+        <v>22.13043105972173</v>
       </c>
       <c r="C18">
-        <v>12.90062217043745</v>
+        <v>12.70984085204854</v>
       </c>
       <c r="D18">
-        <v>8.956993815060658</v>
+        <v>9.034574388074395</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>74.85264598565387</v>
+        <v>74.88125256311574</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>2.042506869554273</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>10.83120200336791</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>18.79446252072962</v>
+        <v>10.79283541590535</v>
       </c>
       <c r="K18">
-        <v>9.849216183584208</v>
+        <v>18.63795308880863</v>
       </c>
       <c r="L18">
-        <v>16.39525524126498</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>9.842332683380887</v>
+      </c>
+      <c r="M18">
+        <v>16.32179413564858</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.15261461630616</v>
+        <v>22.01828480903909</v>
       </c>
       <c r="C19">
-        <v>12.83672097293003</v>
+        <v>12.64621272792897</v>
       </c>
       <c r="D19">
-        <v>8.92484723979064</v>
+        <v>9.002931389381628</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>74.53408966969222</v>
+        <v>74.56531999968725</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>2.043758927869508</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>10.8011781581299</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>18.70090932418735</v>
+        <v>10.76282245069016</v>
       </c>
       <c r="K19">
-        <v>9.800730500639689</v>
+        <v>18.5448231027033</v>
       </c>
       <c r="L19">
-        <v>16.31564858234936</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>9.793969053951077</v>
+      </c>
+      <c r="M19">
+        <v>16.24243907781165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.65858294013166</v>
+        <v>22.52124028875959</v>
       </c>
       <c r="C20">
-        <v>13.12356084061897</v>
+        <v>12.93181021478066</v>
       </c>
       <c r="D20">
-        <v>9.069345013693386</v>
+        <v>9.14517946536821</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>75.96425060846036</v>
+        <v>75.9837537195187</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>2.038119318514695</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>10.93640522162433</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>19.12049847932639</v>
+        <v>10.89799194363768</v>
       </c>
       <c r="K20">
-        <v>10.01810192809471</v>
+        <v>18.96250199998951</v>
       </c>
       <c r="L20">
-        <v>16.67259047903719</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>10.01078744724692</v>
+      </c>
+      <c r="M20">
+        <v>16.59824117536644</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.33078037219048</v>
+        <v>24.18345729027289</v>
       </c>
       <c r="C21">
-        <v>14.076411576648</v>
+        <v>13.88022670226189</v>
       </c>
       <c r="D21">
-        <v>9.552516308824849</v>
+        <v>9.621060301317764</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>80.71512144740525</v>
+        <v>80.69644980176402</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>2.019033497564802</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>11.39322247071576</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>20.50772480031155</v>
+        <v>11.354453218902</v>
       </c>
       <c r="K21">
-        <v>10.73507225638316</v>
+        <v>20.3431723220324</v>
       </c>
       <c r="L21">
-        <v>17.85083826439094</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>10.72581867022719</v>
+      </c>
+      <c r="M21">
+        <v>17.77250159423081</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.40622565449664</v>
+        <v>25.25240813904909</v>
       </c>
       <c r="C22">
-        <v>14.69340787252276</v>
+        <v>14.49409539100999</v>
       </c>
       <c r="D22">
-        <v>9.867379802750696</v>
+        <v>9.931331634496567</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>83.78656022704871</v>
+        <v>83.74362518130273</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>2.006394755390466</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>11.69426228576831</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>21.4004521574862</v>
+        <v>11.65512267198939</v>
       </c>
       <c r="K22">
-        <v>11.19499488441193</v>
+        <v>21.23145997959127</v>
       </c>
       <c r="L22">
-        <v>18.60745855941379</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>11.18439267972759</v>
+      </c>
+      <c r="M22">
+        <v>18.5263618498609</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.83360441480403</v>
+        <v>24.68325593552518</v>
       </c>
       <c r="C23">
-        <v>14.36446381243053</v>
+        <v>14.16684435191279</v>
       </c>
       <c r="D23">
-        <v>9.699355744070287</v>
+        <v>9.765744673589346</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>82.14983622979432</v>
+        <v>82.11980420648555</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>2.013159801884048</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>11.533316532582</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>20.92505591567233</v>
+        <v>11.4943883915844</v>
       </c>
       <c r="K23">
-        <v>10.95022644505476</v>
+        <v>20.75845130106856</v>
       </c>
       <c r="L23">
-        <v>18.20470793204839</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>10.94035299420905</v>
+      </c>
+      <c r="M23">
+        <v>18.12510110205789</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.63090969908466</v>
+        <v>22.49373178048882</v>
       </c>
       <c r="C24">
-        <v>13.10785542113696</v>
+        <v>12.9161739248616</v>
       </c>
       <c r="D24">
-        <v>9.061420420785165</v>
+        <v>9.137377344324836</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>75.88593241708527</v>
+        <v>75.90607437812389</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>2.038429391383806</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>10.92897126948726</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>19.09754814142808</v>
+        <v>10.89056172727675</v>
       </c>
       <c r="K24">
-        <v>10.00621825795841</v>
+        <v>18.93965696678466</v>
       </c>
       <c r="L24">
-        <v>16.65307325099928</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>9.99893440520969</v>
+      </c>
+      <c r="M24">
+        <v>16.57878705344212</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.16015872016555</v>
+        <v>20.03778962048114</v>
       </c>
       <c r="C25">
-        <v>11.71331058666835</v>
+        <v>11.52725144449122</v>
       </c>
       <c r="D25">
-        <v>8.364566544941553</v>
+        <v>8.451748564043255</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>68.94469874817571</v>
+        <v>69.02331362212999</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2.065358877687844</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>10.28404086603752</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>17.04895029015546</v>
+        <v>10.2456987160895</v>
       </c>
       <c r="K25">
-        <v>9.049470256083442</v>
+        <v>16.90010271445846</v>
       </c>
       <c r="L25">
-        <v>14.90804106498788</v>
+        <v>9.028560236258812</v>
+      </c>
+      <c r="M25">
+        <v>14.83904699057845</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_29/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_29/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.13087963940227</v>
+        <v>23.50896384282596</v>
       </c>
       <c r="C2">
-        <v>10.4574330633153</v>
+        <v>14.95577469852418</v>
       </c>
       <c r="D2">
-        <v>7.936516732507766</v>
+        <v>4.003396358276428</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>63.77066705099751</v>
+        <v>31.55281110200772</v>
       </c>
       <c r="G2">
-        <v>2.085248706810515</v>
+        <v>2.07617691606517</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,39 +445,45 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.773811819283708</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>15.31567179718232</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>8.455617410094417</v>
+        <v>6.447900709826013</v>
       </c>
       <c r="M2">
-        <v>13.48394541947319</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>13.50683256129466</v>
+      </c>
+      <c r="N2">
+        <v>12.89258070253562</v>
+      </c>
+      <c r="O2">
+        <v>24.6608278889345</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.77013003342492</v>
+        <v>21.87294010749856</v>
       </c>
       <c r="C3">
-        <v>9.697854152403092</v>
+        <v>14.06475936794518</v>
       </c>
       <c r="D3">
-        <v>7.579779588362647</v>
+        <v>4.098456954428141</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>60.08829070798461</v>
+        <v>30.20837067095527</v>
       </c>
       <c r="G3">
-        <v>2.098903752385778</v>
+        <v>2.085918045196671</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -480,39 +492,45 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.455207480170586</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>14.18383782510825</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>8.068224275338688</v>
+        <v>6.394719728758476</v>
       </c>
       <c r="M3">
-        <v>12.51429746145946</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>12.91531170582117</v>
+      </c>
+      <c r="N3">
+        <v>13.15737867958486</v>
+      </c>
+      <c r="O3">
+        <v>23.80686634747655</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.89902802547188</v>
+        <v>20.89002730599601</v>
       </c>
       <c r="C4">
-        <v>9.213003943613828</v>
+        <v>13.49237789199152</v>
       </c>
       <c r="D4">
-        <v>7.35685005571372</v>
+        <v>4.157356521903442</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>57.76654674827795</v>
+        <v>29.38853634550884</v>
       </c>
       <c r="G4">
-        <v>2.107412557249717</v>
+        <v>2.092046128258345</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -521,39 +539,45 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.260125274627161</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>13.45843162884724</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>7.831107665195278</v>
+        <v>6.365320361416574</v>
       </c>
       <c r="M4">
-        <v>11.89221538983258</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>12.54777593259894</v>
+      </c>
+      <c r="N4">
+        <v>13.32298036222385</v>
+      </c>
+      <c r="O4">
+        <v>23.29515319707946</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.53486451630567</v>
+        <v>20.47941103318351</v>
       </c>
       <c r="C5">
-        <v>9.010593586884861</v>
+        <v>13.25276984643049</v>
       </c>
       <c r="D5">
-        <v>7.265021215683267</v>
+        <v>4.181517102842037</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>56.80534098945543</v>
+        <v>29.05621028417424</v>
       </c>
       <c r="G5">
-        <v>2.110916282489817</v>
+        <v>2.094582397477614</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -562,39 +586,45 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.180771613278935</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>13.15492125289002</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>7.73474129023626</v>
+        <v>6.354141017699845</v>
       </c>
       <c r="M5">
-        <v>11.69142948182182</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>12.39709431509937</v>
+      </c>
+      <c r="N5">
+        <v>13.39125721284849</v>
+      </c>
+      <c r="O5">
+        <v>23.08993692416</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.47383478813274</v>
+        <v>20.41062510922618</v>
       </c>
       <c r="C6">
-        <v>8.976686699253374</v>
+        <v>13.2125996676558</v>
       </c>
       <c r="D6">
-        <v>7.24971389030261</v>
+        <v>4.185539215378625</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>56.64483296290219</v>
+        <v>29.00114515189919</v>
       </c>
       <c r="G6">
-        <v>2.11150040359374</v>
+        <v>2.095005957713421</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -603,39 +633,45 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.167604113851215</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>13.10403964518925</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>7.718758035678872</v>
+        <v>6.352332575925185</v>
       </c>
       <c r="M6">
-        <v>11.66426932211411</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>12.37202482823625</v>
+      </c>
+      <c r="N6">
+        <v>13.40264341216239</v>
+      </c>
+      <c r="O6">
+        <v>23.05606508913624</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.89415424760486</v>
+        <v>20.88453016010473</v>
       </c>
       <c r="C7">
-        <v>9.210293955666447</v>
+        <v>13.48917217591022</v>
       </c>
       <c r="D7">
-        <v>7.355615595580914</v>
+        <v>4.157681686565875</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>57.75364421316267</v>
+        <v>29.38404685616631</v>
       </c>
       <c r="G7">
-        <v>2.10745965641884</v>
+        <v>2.092080172634338</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -644,39 +680,45 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.259054482905585</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>13.45437068089862</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>7.829806866278591</v>
+        <v>6.365166371938908</v>
       </c>
       <c r="M7">
-        <v>11.88873161556971</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>12.54574720015352</v>
+      </c>
+      <c r="N7">
+        <v>13.32389791239792</v>
+      </c>
+      <c r="O7">
+        <v>23.2923719838246</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.66893014864362</v>
+        <v>22.94888350344154</v>
       </c>
       <c r="C8">
-        <v>10.19924400562781</v>
+        <v>14.65379636443841</v>
       </c>
       <c r="D8">
-        <v>7.81431338537956</v>
+        <v>4.036078301561226</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>62.51364451498051</v>
+        <v>31.08826198191317</v>
       </c>
       <c r="G8">
-        <v>2.089934291696309</v>
+        <v>2.079506439475431</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -685,39 +727,45 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.663845425162993</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>14.93158308698514</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>8.321926481739725</v>
+        <v>6.428878325793991</v>
       </c>
       <c r="M8">
-        <v>13.15503618426631</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>13.30387795369954</v>
+      </c>
+      <c r="N8">
+        <v>12.98327863891779</v>
+      </c>
+      <c r="O8">
+        <v>24.36383993223489</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.8793538715789</v>
+        <v>26.79788774253718</v>
       </c>
       <c r="C9">
-        <v>12.00167262726015</v>
+        <v>16.73809849175263</v>
       </c>
       <c r="D9">
-        <v>8.68412716705674</v>
+        <v>3.800618908367555</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>71.36900810637972</v>
+        <v>34.46316905255779</v>
       </c>
       <c r="G9">
-        <v>2.05629847747656</v>
+        <v>2.055913956219445</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -726,39 +774,45 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.4623401530217</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>17.59902594944623</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>9.302189497071033</v>
+        <v>6.580403277951005</v>
       </c>
       <c r="M9">
-        <v>15.43585413373855</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>14.74961317055095</v>
+      </c>
+      <c r="N9">
+        <v>12.3376179953777</v>
+      </c>
+      <c r="O9">
+        <v>26.56014763851251</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.09446986509966</v>
+        <v>29.3885005906664</v>
       </c>
       <c r="C10">
-        <v>13.25807236437574</v>
+        <v>18.15113270687092</v>
       </c>
       <c r="D10">
-        <v>9.308323751060604</v>
+        <v>3.62760207438486</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>77.6049251547101</v>
+        <v>36.95187351350155</v>
       </c>
       <c r="G10">
-        <v>2.031615164324897</v>
+        <v>2.039073126830083</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -767,39 +821,45 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>11.05377427362078</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>19.4385762420763</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>10.25763790973366</v>
+        <v>6.709022774529578</v>
       </c>
       <c r="M10">
-        <v>17.00347465724179</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>15.92608709838717</v>
+      </c>
+      <c r="N10">
+        <v>11.87451888118049</v>
+      </c>
+      <c r="O10">
+        <v>28.22736785691917</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.07683366096767</v>
+        <v>30.51816272438117</v>
       </c>
       <c r="C11">
-        <v>13.81917102328261</v>
+        <v>18.76944251600802</v>
       </c>
       <c r="D11">
-        <v>9.590285291856958</v>
+        <v>3.548426642940021</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>80.39314207485316</v>
+        <v>38.08529867350942</v>
       </c>
       <c r="G11">
-        <v>2.020278457610212</v>
+        <v>2.031479366334189</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -808,39 +868,45 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>11.32475303518494</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>20.25458940600689</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>10.68002352358236</v>
+        <v>6.771540945693411</v>
       </c>
       <c r="M11">
-        <v>17.6972519900404</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>16.53240755470656</v>
+      </c>
+      <c r="N11">
+        <v>11.66577755185851</v>
+      </c>
+      <c r="O11">
+        <v>28.9973407649057</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.4457859942028</v>
+        <v>30.93916788298658</v>
       </c>
       <c r="C12">
-        <v>14.03057659524239</v>
+        <v>19.00018431924466</v>
       </c>
       <c r="D12">
-        <v>9.696913956941582</v>
+        <v>3.51833498932282</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>81.4432037964007</v>
+        <v>38.51473169455903</v>
       </c>
       <c r="G12">
-        <v>2.015958380770877</v>
+        <v>2.028609763608663</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -849,39 +915,45 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>11.4277555572577</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>20.56112941233997</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>10.83844793508093</v>
+        <v>6.795813742865342</v>
       </c>
       <c r="M12">
-        <v>17.95759742123911</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>16.75830211378639</v>
+      </c>
+      <c r="N12">
+        <v>11.5869681678796</v>
+      </c>
+      <c r="O12">
+        <v>29.29062270409665</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.36645044090444</v>
+        <v>30.84879387281259</v>
       </c>
       <c r="C13">
-        <v>13.98508648486471</v>
+        <v>18.95063889618019</v>
       </c>
       <c r="D13">
-        <v>9.67395329432988</v>
+        <v>3.524821357024217</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>81.21728817948092</v>
+        <v>38.4222337595204</v>
       </c>
       <c r="G13">
-        <v>2.016890199799003</v>
+        <v>2.029227580728178</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -890,39 +962,45 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>11.40555266583943</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>20.4952108510076</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>10.80439194491216</v>
+        <v>6.790559165568072</v>
       </c>
       <c r="M13">
-        <v>17.90162563712662</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>16.70981405117965</v>
+      </c>
+      <c r="N13">
+        <v>11.60393129640022</v>
+      </c>
+      <c r="O13">
+        <v>29.22738172947501</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.10724488816942</v>
+        <v>30.55293329601053</v>
       </c>
       <c r="C14">
-        <v>13.83658217896561</v>
+        <v>18.78849311171919</v>
       </c>
       <c r="D14">
-        <v>9.599059631892214</v>
+        <v>3.545953437952821</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>80.47963890178382</v>
+        <v>38.12062322180157</v>
       </c>
       <c r="G14">
-        <v>2.019923659561581</v>
+        <v>2.031243184958201</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -931,39 +1009,45 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>11.33321855615849</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>20.27985472326576</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>10.69308622616337</v>
+        <v>6.773525753288611</v>
       </c>
       <c r="M14">
-        <v>17.71871572899281</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>16.55106543109012</v>
+      </c>
+      <c r="N14">
+        <v>11.65928934606749</v>
+      </c>
+      <c r="O14">
+        <v>29.02143448640786</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.94809654076823</v>
+        <v>30.37083591157273</v>
       </c>
       <c r="C15">
-        <v>13.74549378518636</v>
+        <v>18.68873556593794</v>
       </c>
       <c r="D15">
-        <v>9.553171211989154</v>
+        <v>3.558881848355491</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>80.02709689517556</v>
+        <v>37.93591074772324</v>
       </c>
       <c r="G15">
-        <v>2.021777830885383</v>
+        <v>2.032478464280405</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -972,39 +1056,45 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>11.28896637131397</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>20.14763885635191</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>10.62471756590545</v>
+        <v>6.763170936290957</v>
       </c>
       <c r="M15">
-        <v>17.60638242733025</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>16.45334922330559</v>
+      </c>
+      <c r="N15">
+        <v>11.6932273563305</v>
+      </c>
+      <c r="O15">
+        <v>28.895510993438</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.02980901841416</v>
+        <v>29.31371253930602</v>
       </c>
       <c r="C16">
-        <v>13.22122821948903</v>
+        <v>18.11024190314633</v>
       </c>
       <c r="D16">
-        <v>9.289868159657539</v>
+        <v>3.632763421244652</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>77.42182719243641</v>
+        <v>36.87782928106803</v>
       </c>
       <c r="G16">
-        <v>2.032352927429232</v>
+        <v>2.03957044490135</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1013,39 +1103,45 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>11.03611271998467</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>19.38487204718037</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>10.22980691920912</v>
+        <v>6.705019566686704</v>
       </c>
       <c r="M16">
-        <v>16.95777881281432</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>15.88593589266435</v>
+      </c>
+      <c r="N16">
+        <v>11.88819588384109</v>
+      </c>
+      <c r="O16">
+        <v>28.17728359738943</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.46037641082342</v>
+        <v>28.65286372572607</v>
       </c>
       <c r="C17">
-        <v>12.89721667577529</v>
+        <v>17.74916289993727</v>
       </c>
       <c r="D17">
-        <v>9.127920278554983</v>
+        <v>3.6779384607976</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>75.81189960545383</v>
+        <v>36.22906588594638</v>
       </c>
       <c r="G17">
-        <v>2.0388051175195</v>
+        <v>2.043935876702668</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1054,39 +1150,45 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.88155794750838</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>18.91195639521891</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>9.984561167184363</v>
+        <v>6.670387328644066</v>
       </c>
       <c r="M17">
-        <v>16.55519707926935</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>15.531087202082</v>
+      </c>
+      <c r="N17">
+        <v>12.008266840745</v>
+      </c>
+      <c r="O17">
+        <v>27.7396491557254</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.13043105972173</v>
+        <v>28.26814919515622</v>
       </c>
       <c r="C18">
-        <v>12.70984085204854</v>
+        <v>17.53916627637858</v>
       </c>
       <c r="D18">
-        <v>9.034574388074395</v>
+        <v>3.703880542508747</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>74.88125256311574</v>
+        <v>35.85602885392057</v>
       </c>
       <c r="G18">
-        <v>2.042506869554273</v>
+        <v>2.046453328057524</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1095,39 +1197,45 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.79283541590535</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>18.63795308880863</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>9.842332683380887</v>
+        <v>6.650843650765181</v>
       </c>
       <c r="M18">
-        <v>16.32179413564858</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>15.32965139093838</v>
+      </c>
+      <c r="N18">
+        <v>12.07751205160178</v>
+      </c>
+      <c r="O18">
+        <v>27.48901391792464</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.01828480903909</v>
+        <v>28.13709235386743</v>
       </c>
       <c r="C19">
-        <v>12.64621272792897</v>
+        <v>17.4676643288331</v>
       </c>
       <c r="D19">
-        <v>9.002931389381628</v>
+        <v>3.712658193315079</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>74.56531999968725</v>
+        <v>35.72974475379021</v>
       </c>
       <c r="G19">
-        <v>2.043758927869508</v>
+        <v>2.047306927511534</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1136,39 +1244,45 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.76282245069016</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>18.5448231027033</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>9.793969053951077</v>
+        <v>6.644290414221862</v>
       </c>
       <c r="M19">
-        <v>16.24243907781165</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>15.2774059110753</v>
+      </c>
+      <c r="N19">
+        <v>12.10099005881104</v>
+      </c>
+      <c r="O19">
+        <v>27.40433812159235</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.52124028875959</v>
+        <v>28.72368781811003</v>
       </c>
       <c r="C20">
-        <v>12.93181021478066</v>
+        <v>17.78783900587114</v>
       </c>
       <c r="D20">
-        <v>9.14517946536821</v>
+        <v>3.67313407863797</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>75.9837537195187</v>
+        <v>36.29811598224393</v>
       </c>
       <c r="G20">
-        <v>2.038119318514695</v>
+        <v>2.043470514300921</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1177,39 +1291,45 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.89799194363768</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>18.96250199998951</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>10.01078744724692</v>
+        <v>6.674034935285647</v>
       </c>
       <c r="M20">
-        <v>16.59824117536644</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>15.56912223834227</v>
+      </c>
+      <c r="N20">
+        <v>11.99546637798306</v>
+      </c>
+      <c r="O20">
+        <v>27.78612408160571</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.18345729027289</v>
+        <v>30.6400164248639</v>
       </c>
       <c r="C21">
-        <v>13.88022670226189</v>
+        <v>18.83621040447639</v>
       </c>
       <c r="D21">
-        <v>9.621060301317764</v>
+        <v>3.539749765531708</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>80.69644980176402</v>
+        <v>38.20920653177113</v>
       </c>
       <c r="G21">
-        <v>2.019033497564802</v>
+        <v>2.030651022041657</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1218,39 +1338,45 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>11.354453218902</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>20.3431723220324</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>10.72581867022719</v>
+        <v>6.778512448130039</v>
       </c>
       <c r="M21">
-        <v>17.77250159423081</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>16.59779310604852</v>
+      </c>
+      <c r="N21">
+        <v>11.6430232456517</v>
+      </c>
+      <c r="O21">
+        <v>29.08187909364588</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.25240813904909</v>
+        <v>31.85310496275759</v>
       </c>
       <c r="C22">
-        <v>14.49409539100999</v>
+        <v>19.50164572718645</v>
       </c>
       <c r="D22">
-        <v>9.931331634496567</v>
+        <v>3.451913768188656</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>83.74362518130273</v>
+        <v>39.45963776961164</v>
       </c>
       <c r="G22">
-        <v>2.006394755390466</v>
+        <v>2.022305622298291</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1259,39 +1385,45 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>11.65512267198939</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>21.23145997959127</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>11.18439267972759</v>
+        <v>6.850295233868773</v>
       </c>
       <c r="M22">
-        <v>18.5263618498609</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>17.248565871383</v>
+      </c>
+      <c r="N22">
+        <v>11.41404150042063</v>
+      </c>
+      <c r="O22">
+        <v>29.93876254157971</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.68325593552518</v>
+        <v>31.20916684376426</v>
       </c>
       <c r="C23">
-        <v>14.16684435191279</v>
+        <v>19.14824945353881</v>
       </c>
       <c r="D23">
-        <v>9.765744673589346</v>
+        <v>3.498869056727523</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>82.11980420648555</v>
+        <v>38.79209106213579</v>
       </c>
       <c r="G23">
-        <v>2.013159801884048</v>
+        <v>2.02675804224523</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1300,39 +1432,45 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>11.4943883915844</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>20.75845130106856</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>10.94035299420905</v>
+        <v>6.811655163249589</v>
       </c>
       <c r="M23">
-        <v>18.12510110205789</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>16.90315418487798</v>
+      </c>
+      <c r="N23">
+        <v>11.53614195665555</v>
+      </c>
+      <c r="O23">
+        <v>29.48047788220298</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.49373178048882</v>
+        <v>28.6916831645199</v>
       </c>
       <c r="C24">
-        <v>12.9161739248616</v>
+        <v>17.77036104613324</v>
       </c>
       <c r="D24">
-        <v>9.137377344324836</v>
+        <v>3.675306229034671</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>75.90607437812389</v>
+        <v>36.26689860491674</v>
       </c>
       <c r="G24">
-        <v>2.038429391383806</v>
+        <v>2.043680880367161</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1341,39 +1479,45 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.89056172727675</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>18.93965696678466</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>9.99893440520969</v>
+        <v>6.672384711283217</v>
       </c>
       <c r="M24">
-        <v>16.57878705344212</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>15.55193477547858</v>
+      </c>
+      <c r="N24">
+        <v>12.00125279502253</v>
+      </c>
+      <c r="O24">
+        <v>27.76510975973755</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.03778962048114</v>
+        <v>25.79910027153779</v>
       </c>
       <c r="C25">
-        <v>11.52725144449122</v>
+        <v>16.19533796146214</v>
       </c>
       <c r="D25">
-        <v>8.451748564043255</v>
+        <v>3.864176802428634</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>69.02331362212999</v>
+        <v>33.54803770602321</v>
       </c>
       <c r="G25">
-        <v>2.065358877687844</v>
+        <v>2.062197599944058</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1382,16 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.2456987160895</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>16.90010271445846</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>9.028560236258812</v>
+        <v>6.536455182818157</v>
       </c>
       <c r="M25">
-        <v>14.83904699057845</v>
+        <v>14.36367530668197</v>
+      </c>
+      <c r="N25">
+        <v>12.51013631488225</v>
+      </c>
+      <c r="O25">
+        <v>25.95638281710374</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_29/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_29/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.50896384282596</v>
+        <v>12.00297184047867</v>
       </c>
       <c r="C2">
-        <v>14.95577469852418</v>
+        <v>7.463805630330462</v>
       </c>
       <c r="D2">
-        <v>4.003396358276428</v>
+        <v>6.887406922638116</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>31.55281110200772</v>
+        <v>41.81081372310123</v>
       </c>
       <c r="G2">
-        <v>2.07617691606517</v>
+        <v>2.144521774936955</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>31.59739328524196</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>10.75258706200547</v>
       </c>
       <c r="L2">
-        <v>6.447900709826013</v>
+        <v>7.188156382857877</v>
       </c>
       <c r="M2">
-        <v>13.50683256129466</v>
+        <v>10.02162332100196</v>
       </c>
       <c r="N2">
-        <v>12.89258070253562</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>24.6608278889345</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.87294010749856</v>
+        <v>11.30369027185624</v>
       </c>
       <c r="C3">
-        <v>14.06475936794518</v>
+        <v>7.005236272209863</v>
       </c>
       <c r="D3">
-        <v>4.098456954428141</v>
+        <v>6.889933394677593</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>30.20837067095527</v>
+        <v>40.35559017621021</v>
       </c>
       <c r="G3">
-        <v>2.085918045196671</v>
+        <v>2.153258343760132</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>30.81284998576543</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>10.0146594221683</v>
       </c>
       <c r="L3">
-        <v>6.394719728758476</v>
+        <v>7.079818172338416</v>
       </c>
       <c r="M3">
-        <v>12.91531170582117</v>
+        <v>9.767748453298433</v>
       </c>
       <c r="N3">
-        <v>13.15737867958486</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>23.80686634747655</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.89002730599601</v>
+        <v>10.86227486692995</v>
       </c>
       <c r="C4">
-        <v>13.49237789199152</v>
+        <v>6.710860959578641</v>
       </c>
       <c r="D4">
-        <v>4.157356521903442</v>
+        <v>6.891380696655778</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>29.38853634550884</v>
+        <v>39.45856950343124</v>
       </c>
       <c r="G4">
-        <v>2.092046128258345</v>
+        <v>2.158761600981328</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>30.33530681683004</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>9.537917057473058</v>
       </c>
       <c r="L4">
-        <v>6.365320361416574</v>
+        <v>7.016251536339885</v>
       </c>
       <c r="M4">
-        <v>12.54777593259894</v>
+        <v>9.6157334498278</v>
       </c>
       <c r="N4">
-        <v>13.32298036222385</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>23.29515319707946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.47941103318351</v>
+        <v>10.67955690546514</v>
       </c>
       <c r="C5">
-        <v>13.25276984643049</v>
+        <v>6.587663979245398</v>
       </c>
       <c r="D5">
-        <v>4.181517102842037</v>
+        <v>6.891944299812494</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>29.05621028417424</v>
+        <v>39.09248964210472</v>
       </c>
       <c r="G5">
-        <v>2.094582397477614</v>
+        <v>2.161040772592151</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>30.14185942781576</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>9.33762410822894</v>
       </c>
       <c r="L5">
-        <v>6.354141017699845</v>
+        <v>6.991092817127415</v>
       </c>
       <c r="M5">
-        <v>12.39709431509937</v>
+        <v>9.554816379026359</v>
       </c>
       <c r="N5">
-        <v>13.39125721284849</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>23.08993692416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.41062510922618</v>
+        <v>10.64905191995354</v>
       </c>
       <c r="C6">
-        <v>13.2125996676558</v>
+        <v>6.567011495876765</v>
       </c>
       <c r="D6">
-        <v>4.185539215378625</v>
+        <v>6.892036302265502</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>29.00114515189919</v>
+        <v>39.0316807698719</v>
       </c>
       <c r="G6">
-        <v>2.095005957713421</v>
+        <v>2.161421479846853</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>30.1098106709418</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>9.304000299961675</v>
       </c>
       <c r="L6">
-        <v>6.352332575925185</v>
+        <v>6.986960295848847</v>
       </c>
       <c r="M6">
-        <v>12.37202482823625</v>
+        <v>9.544765089542425</v>
       </c>
       <c r="N6">
-        <v>13.40264341216239</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>23.05606508913624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.88453016010473</v>
+        <v>10.85982186786455</v>
       </c>
       <c r="C7">
-        <v>13.48917217591022</v>
+        <v>6.709212599337455</v>
       </c>
       <c r="D7">
-        <v>4.157681686565875</v>
+        <v>6.891388403707739</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>29.38404685616631</v>
+        <v>39.45363411118647</v>
       </c>
       <c r="G7">
-        <v>2.092080172634338</v>
+        <v>2.158792188648196</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>30.33269309342199</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>9.535240285730888</v>
       </c>
       <c r="L7">
-        <v>6.365166371938908</v>
+        <v>7.015909217036971</v>
       </c>
       <c r="M7">
-        <v>12.54574720015352</v>
+        <v>9.614907651679719</v>
       </c>
       <c r="N7">
-        <v>13.32389791239792</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>23.2923719838246</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.94888350344154</v>
+        <v>11.76446308373935</v>
       </c>
       <c r="C8">
-        <v>14.65379636443841</v>
+        <v>7.308337733846022</v>
       </c>
       <c r="D8">
-        <v>4.036078301561226</v>
+        <v>6.888299615657985</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>31.08826198191317</v>
+        <v>41.30997535364534</v>
       </c>
       <c r="G8">
-        <v>2.079506439475431</v>
+        <v>2.147506300004623</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>31.32607878200244</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>10.50301540842456</v>
       </c>
       <c r="L8">
-        <v>6.428878325793991</v>
+        <v>7.150190076492827</v>
       </c>
       <c r="M8">
-        <v>13.30387795369954</v>
+        <v>9.933319608827846</v>
       </c>
       <c r="N8">
-        <v>12.98327863891779</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>24.36383993223489</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>26.79788774253718</v>
+        <v>13.65228200089937</v>
       </c>
       <c r="C9">
-        <v>16.73809849175263</v>
+        <v>8.382788414325132</v>
       </c>
       <c r="D9">
-        <v>3.800618908367555</v>
+        <v>6.881416743557978</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>34.46316905255779</v>
+        <v>44.90953155113237</v>
       </c>
       <c r="G9">
-        <v>2.055913956219445</v>
+        <v>2.126399027025208</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>33.3030852679114</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>12.21653039275736</v>
       </c>
       <c r="L9">
-        <v>6.580403277951005</v>
+        <v>7.436832897798416</v>
       </c>
       <c r="M9">
-        <v>14.74961317055095</v>
+        <v>10.58596252924395</v>
       </c>
       <c r="N9">
-        <v>12.3376179953777</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>26.56014763851251</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.3885005906664</v>
+        <v>14.98684763985337</v>
       </c>
       <c r="C10">
-        <v>18.15113270687092</v>
+        <v>9.113384708515682</v>
       </c>
       <c r="D10">
-        <v>3.62760207438486</v>
+        <v>6.87585105034807</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>36.95187351350155</v>
+        <v>47.51572760616246</v>
       </c>
       <c r="G10">
-        <v>2.039073126830083</v>
+        <v>2.111397042284382</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>34.76894833068587</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>13.36819280080751</v>
       </c>
       <c r="L10">
-        <v>6.709022774529578</v>
+        <v>7.661538940106571</v>
       </c>
       <c r="M10">
-        <v>15.92608709838717</v>
+        <v>11.07977579281118</v>
       </c>
       <c r="N10">
-        <v>11.87451888118049</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>28.22736785691917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.51816272438117</v>
+        <v>15.56855798669254</v>
       </c>
       <c r="C11">
-        <v>18.76944251600802</v>
+        <v>9.433703931641627</v>
       </c>
       <c r="D11">
-        <v>3.548426642940021</v>
+        <v>6.873206336787445</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>38.08529867350942</v>
+        <v>48.69126250789353</v>
       </c>
       <c r="G11">
-        <v>2.031479366334189</v>
+        <v>2.104652660199362</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>35.4381953329658</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>13.87006075523778</v>
       </c>
       <c r="L11">
-        <v>6.771540945693411</v>
+        <v>7.766828948440392</v>
       </c>
       <c r="M11">
-        <v>16.53240755470656</v>
+        <v>11.30705709189018</v>
       </c>
       <c r="N11">
-        <v>11.66577755185851</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>28.9973407649057</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.93916788298658</v>
+        <v>15.78530055044516</v>
       </c>
       <c r="C12">
-        <v>19.00018431924466</v>
+        <v>9.553342053260151</v>
       </c>
       <c r="D12">
-        <v>3.51833498932282</v>
+        <v>6.872188385338019</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>38.51473169455903</v>
+        <v>49.13489311629067</v>
       </c>
       <c r="G12">
-        <v>2.028609763608663</v>
+        <v>2.102107545124638</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>35.69195658217898</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>14.05704933518587</v>
       </c>
       <c r="L12">
-        <v>6.795813742865342</v>
+        <v>7.807143373545429</v>
       </c>
       <c r="M12">
-        <v>16.75830211378639</v>
+        <v>11.39347441242963</v>
       </c>
       <c r="N12">
-        <v>11.5869681678796</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>29.29062270409665</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.84879387281259</v>
+        <v>15.73877661059902</v>
       </c>
       <c r="C13">
-        <v>18.95063889618019</v>
+        <v>9.527648428314722</v>
       </c>
       <c r="D13">
-        <v>3.524821357024217</v>
+        <v>6.872408355494457</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>38.4222337595204</v>
+        <v>49.03941742693697</v>
       </c>
       <c r="G13">
-        <v>2.029227580728178</v>
+        <v>2.102655333867602</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>35.63728974665654</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>14.01691214552023</v>
       </c>
       <c r="L13">
-        <v>6.790559165568072</v>
+        <v>7.798441158803198</v>
       </c>
       <c r="M13">
-        <v>16.70981405117965</v>
+        <v>11.37484764479264</v>
       </c>
       <c r="N13">
-        <v>11.60393129640022</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>29.22738172947501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.55293329601053</v>
+        <v>15.58645975547496</v>
       </c>
       <c r="C14">
-        <v>18.78849311171919</v>
+        <v>9.443579455708578</v>
       </c>
       <c r="D14">
-        <v>3.545953437952821</v>
+        <v>6.873122920609684</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>38.12062322180157</v>
+        <v>48.72779092023287</v>
       </c>
       <c r="G14">
-        <v>2.031243184958201</v>
+        <v>2.104443111303965</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>35.45906576244895</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>13.88550503921476</v>
       </c>
       <c r="L14">
-        <v>6.773525753288611</v>
+        <v>7.770136732893337</v>
       </c>
       <c r="M14">
-        <v>16.55106543109012</v>
+        <v>11.31415979542825</v>
       </c>
       <c r="N14">
-        <v>11.65928934606749</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>29.02143448640786</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.37083591157273</v>
+        <v>15.49270401895836</v>
       </c>
       <c r="C15">
-        <v>18.68873556593794</v>
+        <v>9.391870897428159</v>
       </c>
       <c r="D15">
-        <v>3.558881848355491</v>
+        <v>6.873558461640589</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>37.93591074772324</v>
+        <v>48.53671168399124</v>
       </c>
       <c r="G15">
-        <v>2.032478464280405</v>
+        <v>2.105539243056618</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>35.34994165841131</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>13.80461958825247</v>
       </c>
       <c r="L15">
-        <v>6.763170936290957</v>
+        <v>7.752857303140511</v>
       </c>
       <c r="M15">
-        <v>16.45334922330559</v>
+        <v>11.27703173596944</v>
       </c>
       <c r="N15">
-        <v>11.6932273563305</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>28.895510993438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.31371253930602</v>
+        <v>14.94832992374012</v>
       </c>
       <c r="C16">
-        <v>18.11024190314633</v>
+        <v>9.09221475076529</v>
       </c>
       <c r="D16">
-        <v>3.632763421244652</v>
+        <v>6.876021599503371</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>36.87782928106803</v>
+        <v>47.43869380165202</v>
       </c>
       <c r="G16">
-        <v>2.03957044490135</v>
+        <v>2.11183919213054</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>34.72525815334716</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>13.3349604370074</v>
       </c>
       <c r="L16">
-        <v>6.705019566686704</v>
+        <v>7.654719867267716</v>
       </c>
       <c r="M16">
-        <v>15.88593589266435</v>
+        <v>11.06497287383063</v>
       </c>
       <c r="N16">
-        <v>11.88819588384109</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>28.17728359738943</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.65286372572607</v>
+        <v>14.60794720340774</v>
       </c>
       <c r="C17">
-        <v>17.74916289993727</v>
+        <v>8.90535040412915</v>
       </c>
       <c r="D17">
-        <v>3.6779384607976</v>
+        <v>6.87750360592924</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>36.22906588594638</v>
+        <v>46.76245156092295</v>
       </c>
       <c r="G17">
-        <v>2.043935876702668</v>
+        <v>2.115722696717061</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>34.34263468330928</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>13.04127272795442</v>
       </c>
       <c r="L17">
-        <v>6.670387328644066</v>
+        <v>7.595302545561871</v>
       </c>
       <c r="M17">
-        <v>15.531087202082</v>
+        <v>10.9355345416199</v>
       </c>
       <c r="N17">
-        <v>12.008266840745</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>27.7396491557254</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.26814919515622</v>
+        <v>14.40977074217958</v>
       </c>
       <c r="C18">
-        <v>17.53916627637858</v>
+        <v>8.796733555061129</v>
       </c>
       <c r="D18">
-        <v>3.703880542508747</v>
+        <v>6.878345411692183</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>35.85602885392057</v>
+        <v>46.37255096393139</v>
       </c>
       <c r="G18">
-        <v>2.046453328057524</v>
+        <v>2.117964100511126</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>34.12278678337442</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>12.8702707241794</v>
       </c>
       <c r="L18">
-        <v>6.650843650765181</v>
+        <v>7.561415984506318</v>
       </c>
       <c r="M18">
-        <v>15.32965139093838</v>
+        <v>10.86133497176456</v>
       </c>
       <c r="N18">
-        <v>12.07751205160178</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>27.48901391792464</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.13709235386743</v>
+        <v>14.34225662619711</v>
       </c>
       <c r="C19">
-        <v>17.4676643288331</v>
+        <v>8.759760426102307</v>
       </c>
       <c r="D19">
-        <v>3.712658193315079</v>
+        <v>6.878628617281496</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>35.72974475379021</v>
+        <v>46.24037850357176</v>
       </c>
       <c r="G19">
-        <v>2.047306927511534</v>
+        <v>2.118724403703965</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>34.04838997599162</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>12.8120118484225</v>
       </c>
       <c r="L19">
-        <v>6.644290414221862</v>
+        <v>7.54999215078035</v>
       </c>
       <c r="M19">
-        <v>15.2774059110753</v>
+        <v>10.83625625937521</v>
       </c>
       <c r="N19">
-        <v>12.10099005881104</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>27.40433812159235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.72368781811003</v>
+        <v>14.64442886284575</v>
       </c>
       <c r="C20">
-        <v>17.78783900587114</v>
+        <v>8.925359674150894</v>
       </c>
       <c r="D20">
-        <v>3.67313407863797</v>
+        <v>6.877346942882498</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>36.29811598224393</v>
+        <v>46.83453714002341</v>
       </c>
       <c r="G20">
-        <v>2.043470514300921</v>
+        <v>2.115308511155012</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>34.38334231336513</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>13.07275085545117</v>
       </c>
       <c r="L20">
-        <v>6.674034935285647</v>
+        <v>7.601597735679739</v>
       </c>
       <c r="M20">
-        <v>15.56912223834227</v>
+        <v>10.94928785093286</v>
       </c>
       <c r="N20">
-        <v>11.99546637798306</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>27.78612408160571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.6400164248639</v>
+        <v>15.63129398281145</v>
       </c>
       <c r="C21">
-        <v>18.83621040447639</v>
+        <v>9.468316983493796</v>
       </c>
       <c r="D21">
-        <v>3.539749765531708</v>
+        <v>6.872913484209013</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>38.20920653177113</v>
+        <v>48.81936469891959</v>
       </c>
       <c r="G21">
-        <v>2.030651022041657</v>
+        <v>2.103917780666105</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>35.51140544571187</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>13.92418455833752</v>
       </c>
       <c r="L21">
-        <v>6.778512448130039</v>
+        <v>7.778438365650386</v>
       </c>
       <c r="M21">
-        <v>16.59779310604852</v>
+        <v>11.331975946823</v>
       </c>
       <c r="N21">
-        <v>11.6430232456517</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>29.08187909364588</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.85310496275759</v>
+        <v>16.25570362852268</v>
       </c>
       <c r="C22">
-        <v>19.50164572718645</v>
+        <v>9.813536716553047</v>
       </c>
       <c r="D22">
-        <v>3.451913768188656</v>
+        <v>6.869919900358873</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>39.45963776961164</v>
+        <v>50.10772010297958</v>
       </c>
       <c r="G22">
-        <v>2.022305622298291</v>
+        <v>2.096523333459687</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>36.25060793931252</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>14.46288011770717</v>
       </c>
       <c r="L22">
-        <v>6.850295233868773</v>
+        <v>7.89660148938895</v>
       </c>
       <c r="M22">
-        <v>17.248565871383</v>
+        <v>11.58412391774948</v>
       </c>
       <c r="N22">
-        <v>11.41404150042063</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>29.93876254157971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.20916684376426</v>
+        <v>15.92428551322265</v>
       </c>
       <c r="C23">
-        <v>19.14824945353881</v>
+        <v>9.630141902819178</v>
       </c>
       <c r="D23">
-        <v>3.498869056727523</v>
+        <v>6.871526511766725</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>38.79209106213579</v>
+        <v>49.4209186251847</v>
       </c>
       <c r="G23">
-        <v>2.02675804224523</v>
+        <v>2.100466268873248</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>35.85590122343971</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>14.17695477900754</v>
       </c>
       <c r="L23">
-        <v>6.811655163249589</v>
+        <v>7.833297406203704</v>
       </c>
       <c r="M23">
-        <v>16.90315418487798</v>
+        <v>11.44936804796075</v>
       </c>
       <c r="N23">
-        <v>11.53614195665555</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>29.48047788220298</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.6916831645199</v>
+        <v>14.62794325599756</v>
       </c>
       <c r="C24">
-        <v>17.77036104613324</v>
+        <v>8.916317182640405</v>
       </c>
       <c r="D24">
-        <v>3.675306229034671</v>
+        <v>6.877417802062605</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>36.26689860491674</v>
+        <v>46.80195073150043</v>
       </c>
       <c r="G24">
-        <v>2.043680880367161</v>
+        <v>2.11549573707094</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>34.3649379953227</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>13.05852632084827</v>
       </c>
       <c r="L24">
-        <v>6.672384711283217</v>
+        <v>7.598750829218286</v>
       </c>
       <c r="M24">
-        <v>15.55193477547858</v>
+        <v>10.94306930385436</v>
       </c>
       <c r="N24">
-        <v>12.00125279502253</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>27.76510975973755</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>25.79910027153779</v>
+        <v>13.13762051266368</v>
       </c>
       <c r="C25">
-        <v>16.19533796146214</v>
+        <v>8.102658618083332</v>
       </c>
       <c r="D25">
-        <v>3.864176802428634</v>
+        <v>6.88336753057433</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>33.54803770602321</v>
+        <v>43.94171319285572</v>
       </c>
       <c r="G25">
-        <v>2.062197599944058</v>
+        <v>2.132011102734113</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>32.765658572977</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>11.77220692651267</v>
       </c>
       <c r="L25">
-        <v>6.536455182818157</v>
+        <v>7.356805281390064</v>
       </c>
       <c r="M25">
-        <v>14.36367530668197</v>
+        <v>10.406702632125</v>
       </c>
       <c r="N25">
-        <v>12.51013631488225</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>25.95638281710374</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_29/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_29/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.00297184047867</v>
+        <v>13.88541484504435</v>
       </c>
       <c r="C2">
-        <v>7.463805630330462</v>
+        <v>5.177136891415603</v>
       </c>
       <c r="D2">
-        <v>6.887406922638116</v>
+        <v>8.833855649848598</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>41.81081372310123</v>
+        <v>44.30655457852706</v>
       </c>
       <c r="G2">
-        <v>2.144521774936955</v>
+        <v>3.739416386551787</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>31.59739328524196</v>
+        <v>36.47434230969247</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.75258706200547</v>
+        <v>12.10747298028357</v>
       </c>
       <c r="L2">
-        <v>7.188156382857877</v>
+        <v>11.03415644067324</v>
       </c>
       <c r="M2">
-        <v>10.02162332100196</v>
+        <v>15.63597724056909</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.30369027185624</v>
+        <v>13.80354887461018</v>
       </c>
       <c r="C3">
-        <v>7.005236272209863</v>
+        <v>4.968046568627969</v>
       </c>
       <c r="D3">
-        <v>6.889933394677593</v>
+        <v>8.822948447706572</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>40.35559017621021</v>
+        <v>43.96480458125354</v>
       </c>
       <c r="G3">
-        <v>2.153258343760132</v>
+        <v>3.742477462450222</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>30.81284998576543</v>
+        <v>36.30647604017987</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.0146594221683</v>
+        <v>12.04614633208203</v>
       </c>
       <c r="L3">
-        <v>7.079818172338416</v>
+        <v>11.03902050425428</v>
       </c>
       <c r="M3">
-        <v>9.767748453298433</v>
+        <v>15.64438632396853</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.86227486692995</v>
+        <v>13.75782338809849</v>
       </c>
       <c r="C4">
-        <v>6.710860959578641</v>
+        <v>4.833807079950862</v>
       </c>
       <c r="D4">
-        <v>6.891380696655778</v>
+        <v>8.815973170676974</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>39.45856950343124</v>
+        <v>43.75991431535026</v>
       </c>
       <c r="G4">
-        <v>2.158761600981328</v>
+        <v>3.744454971577026</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>30.33530681683004</v>
+        <v>36.20685230721862</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.537917057473058</v>
+        <v>12.01227811495379</v>
       </c>
       <c r="L4">
-        <v>7.016251536339885</v>
+        <v>11.04359143774879</v>
       </c>
       <c r="M4">
-        <v>9.6157334498278</v>
+        <v>15.65269541525561</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.67955690546514</v>
+        <v>13.74035141856255</v>
       </c>
       <c r="C5">
-        <v>6.587663979245398</v>
+        <v>4.777666547857674</v>
       </c>
       <c r="D5">
-        <v>6.891944299812494</v>
+        <v>8.813060433295707</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>39.09248964210472</v>
+        <v>43.67772037332951</v>
       </c>
       <c r="G5">
-        <v>2.161040772592151</v>
+        <v>3.745285551951484</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>30.14185942781576</v>
+        <v>36.16713944867798</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.33762410822894</v>
+        <v>11.99944215502729</v>
       </c>
       <c r="L5">
-        <v>6.991092817127415</v>
+        <v>11.04585290051465</v>
       </c>
       <c r="M5">
-        <v>9.554816379026359</v>
+        <v>15.65687307592258</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.64905191995354</v>
+        <v>13.73752090213602</v>
       </c>
       <c r="C6">
-        <v>6.567011495876765</v>
+        <v>4.768258827899938</v>
       </c>
       <c r="D6">
-        <v>6.892036302265502</v>
+        <v>8.812572523446702</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>39.0316807698719</v>
+        <v>43.66415229194309</v>
       </c>
       <c r="G6">
-        <v>2.161421479846853</v>
+        <v>3.745424965351138</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>30.1098106709418</v>
+        <v>36.16059908766457</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.304000299961675</v>
+        <v>11.99736943603819</v>
       </c>
       <c r="L6">
-        <v>6.986960295848847</v>
+        <v>11.04625250810413</v>
       </c>
       <c r="M6">
-        <v>9.544765089542425</v>
+        <v>15.65761459741077</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.85982186786455</v>
+        <v>13.75758302743721</v>
       </c>
       <c r="C7">
-        <v>6.709212599337455</v>
+        <v>4.833055715434798</v>
       </c>
       <c r="D7">
-        <v>6.891388403707739</v>
+        <v>8.815934173349605</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>39.45363411118647</v>
+        <v>43.75880048026967</v>
       </c>
       <c r="G7">
-        <v>2.158792188648196</v>
+        <v>3.744466072831117</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>30.33269309342199</v>
+        <v>36.20631312125705</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.535240285730888</v>
+        <v>12.01210107841762</v>
       </c>
       <c r="L7">
-        <v>7.015909217036971</v>
+        <v>11.04362032161398</v>
       </c>
       <c r="M7">
-        <v>9.614907651679719</v>
+        <v>15.65274855080376</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.76446308373935</v>
+        <v>13.85625756931396</v>
       </c>
       <c r="C8">
-        <v>7.308337733846022</v>
+        <v>5.106278207922705</v>
       </c>
       <c r="D8">
-        <v>6.888299615657985</v>
+        <v>8.830152410325571</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>41.30997535364534</v>
+        <v>44.18772757567174</v>
       </c>
       <c r="G8">
-        <v>2.147506300004623</v>
+        <v>3.74045155914135</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>31.32607878200244</v>
+        <v>36.41575768428031</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.50301540842456</v>
+        <v>12.08555019053257</v>
       </c>
       <c r="L8">
-        <v>7.150190076492827</v>
+        <v>11.03550497848291</v>
       </c>
       <c r="M8">
-        <v>9.933319608827846</v>
+        <v>15.63822419897297</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.65228200089937</v>
+        <v>14.08481689159845</v>
       </c>
       <c r="C9">
-        <v>8.382788414325132</v>
+        <v>5.594265066301577</v>
       </c>
       <c r="D9">
-        <v>6.881416743557978</v>
+        <v>8.85584048633187</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>44.90953155113237</v>
+        <v>45.0654905555968</v>
       </c>
       <c r="G9">
-        <v>2.126399027025208</v>
+        <v>3.733352676677505</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>33.3030852679114</v>
+        <v>36.8529982759777</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.21653039275736</v>
+        <v>12.25896320958884</v>
       </c>
       <c r="L9">
-        <v>7.436832897798416</v>
+        <v>11.03214331617741</v>
       </c>
       <c r="M9">
-        <v>10.58596252924395</v>
+        <v>15.63466681889311</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.98684763985337</v>
+        <v>14.27268343601058</v>
       </c>
       <c r="C10">
-        <v>9.113384708515682</v>
+        <v>5.922184962427582</v>
       </c>
       <c r="D10">
-        <v>6.87585105034807</v>
+        <v>8.873395296671536</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>47.51572760616246</v>
+        <v>45.72910486230094</v>
       </c>
       <c r="G10">
-        <v>2.111397042284382</v>
+        <v>3.728603131154698</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>34.76894833068587</v>
+        <v>37.18923819076663</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.36819280080751</v>
+        <v>12.40328807448879</v>
       </c>
       <c r="L10">
-        <v>7.661538940106571</v>
+        <v>11.03729639017278</v>
       </c>
       <c r="M10">
-        <v>11.07977579281118</v>
+        <v>15.64718323627674</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.56855798669254</v>
+        <v>14.36214089985726</v>
       </c>
       <c r="C11">
-        <v>9.433703931641627</v>
+        <v>6.064486679814562</v>
       </c>
       <c r="D11">
-        <v>6.873206336787445</v>
+        <v>8.881099263189654</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>48.69126250789353</v>
+        <v>46.03426382672212</v>
       </c>
       <c r="G11">
-        <v>2.104652660199362</v>
+        <v>3.726542437586641</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>35.4381953329658</v>
+        <v>37.34519065000958</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.87006075523778</v>
+        <v>12.47238007679264</v>
       </c>
       <c r="L11">
-        <v>7.766828948440392</v>
+        <v>11.0412874692555</v>
       </c>
       <c r="M11">
-        <v>11.30705709189018</v>
+        <v>15.65614228359717</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.78530055044516</v>
+        <v>14.39656034159565</v>
       </c>
       <c r="C12">
-        <v>9.553342053260151</v>
+        <v>6.117369318971424</v>
       </c>
       <c r="D12">
-        <v>6.872188385338019</v>
+        <v>8.883976333551438</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>49.13489311629067</v>
+        <v>46.15022155391897</v>
       </c>
       <c r="G12">
-        <v>2.102107545124638</v>
+        <v>3.725776380904286</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>35.69195658217898</v>
+        <v>37.40465217610114</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.05704933518587</v>
+        <v>12.49901604456159</v>
       </c>
       <c r="L12">
-        <v>7.807143373545429</v>
+        <v>11.04303467026</v>
       </c>
       <c r="M12">
-        <v>11.39347441242963</v>
+        <v>15.66000206450005</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.73877661059902</v>
+        <v>14.38912381286174</v>
       </c>
       <c r="C13">
-        <v>9.527648428314722</v>
+        <v>6.106024971203334</v>
       </c>
       <c r="D13">
-        <v>6.872408355494457</v>
+        <v>8.883358491064888</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>49.03941742693697</v>
+        <v>46.12523129482398</v>
       </c>
       <c r="G13">
-        <v>2.102655333867602</v>
+        <v>3.725940730966969</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>35.63728974665654</v>
+        <v>37.39182843443288</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.01691214552023</v>
+        <v>12.49325886638459</v>
       </c>
       <c r="L13">
-        <v>7.798441158803198</v>
+        <v>11.04264790558506</v>
       </c>
       <c r="M13">
-        <v>11.37484764479264</v>
+        <v>15.65915005461239</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.58645975547496</v>
+        <v>14.36496188875662</v>
       </c>
       <c r="C14">
-        <v>9.443579455708578</v>
+        <v>6.068857568162746</v>
       </c>
       <c r="D14">
-        <v>6.873122920609684</v>
+        <v>8.881336766737137</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>48.72779092023287</v>
+        <v>46.04379611593919</v>
       </c>
       <c r="G14">
-        <v>2.104443111303965</v>
+        <v>3.726479127852905</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>35.45906576244895</v>
+        <v>37.3500746003434</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.88550503921476</v>
+        <v>12.47456209736385</v>
       </c>
       <c r="L14">
-        <v>7.770136732893337</v>
+        <v>11.04142649134038</v>
       </c>
       <c r="M14">
-        <v>11.31415979542825</v>
+        <v>15.65645048173418</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.49270401895836</v>
+        <v>14.35023190486968</v>
       </c>
       <c r="C15">
-        <v>9.391870897428159</v>
+        <v>6.045960293206758</v>
       </c>
       <c r="D15">
-        <v>6.873558461640589</v>
+        <v>8.88009316778207</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>48.53671168399124</v>
+        <v>45.99396478653292</v>
       </c>
       <c r="G15">
-        <v>2.105539243056618</v>
+        <v>3.726810769165779</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>35.34994165841131</v>
+        <v>37.32455125226046</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.80461958825247</v>
+        <v>12.46317062697374</v>
       </c>
       <c r="L15">
-        <v>7.752857303140511</v>
+        <v>11.04070902608637</v>
       </c>
       <c r="M15">
-        <v>11.27703173596944</v>
+        <v>15.65485768082639</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.94832992374012</v>
+        <v>14.26691498459742</v>
       </c>
       <c r="C16">
-        <v>9.09221475076529</v>
+        <v>5.912745528258938</v>
       </c>
       <c r="D16">
-        <v>6.876021599503371</v>
+        <v>8.872886176759872</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>47.43869380165202</v>
+        <v>45.70922193389225</v>
       </c>
       <c r="G16">
-        <v>2.11183919213054</v>
+        <v>3.728739805515866</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>34.72525815334716</v>
+        <v>37.17910448373631</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.3349604370074</v>
+        <v>12.39884006707783</v>
       </c>
       <c r="L16">
-        <v>7.654719867267716</v>
+        <v>11.03706862470971</v>
       </c>
       <c r="M16">
-        <v>11.06497287383063</v>
+        <v>15.64666325320147</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.60794720340774</v>
+        <v>14.21680468947868</v>
       </c>
       <c r="C17">
-        <v>8.90535040412915</v>
+        <v>5.829250593848502</v>
       </c>
       <c r="D17">
-        <v>6.87750360592924</v>
+        <v>8.86839293660697</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>46.76245156092295</v>
+        <v>45.53533082021609</v>
       </c>
       <c r="G17">
-        <v>2.115722696717061</v>
+        <v>3.729948734715691</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>34.34263468330928</v>
+        <v>37.09062722166485</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.04127272795442</v>
+        <v>12.36024051239285</v>
       </c>
       <c r="L17">
-        <v>7.595302545561871</v>
+        <v>11.03525652702186</v>
       </c>
       <c r="M17">
-        <v>10.9355345416199</v>
+        <v>15.64247098062624</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.40977074217958</v>
+        <v>14.18836061859751</v>
       </c>
       <c r="C18">
-        <v>8.796733555061129</v>
+        <v>5.780580575055781</v>
       </c>
       <c r="D18">
-        <v>6.878345411692183</v>
+        <v>8.865782003098218</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>46.37255096393139</v>
+        <v>45.43562602549078</v>
       </c>
       <c r="G18">
-        <v>2.117964100511126</v>
+        <v>3.730653486614445</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>34.12278678337442</v>
+        <v>37.04002091506272</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.8702707241794</v>
+        <v>12.33836404633424</v>
       </c>
       <c r="L18">
-        <v>7.561415984506318</v>
+        <v>11.0343693371328</v>
       </c>
       <c r="M18">
-        <v>10.86133497176456</v>
+        <v>15.64036720126229</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.34225662619711</v>
+        <v>14.17879579414981</v>
       </c>
       <c r="C19">
-        <v>8.759760426102307</v>
+        <v>5.763991333965127</v>
       </c>
       <c r="D19">
-        <v>6.878628617281496</v>
+        <v>8.864893419248943</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>46.24037850357176</v>
+        <v>45.40192355566759</v>
       </c>
       <c r="G19">
-        <v>2.118724403703965</v>
+        <v>3.730893721802406</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>34.04838997599162</v>
+        <v>37.02293592479858</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.8120118484225</v>
+        <v>12.3310135213689</v>
       </c>
       <c r="L19">
-        <v>7.54999215078035</v>
+        <v>11.03409561243521</v>
       </c>
       <c r="M19">
-        <v>10.83625625937521</v>
+        <v>15.63970777823278</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.64442886284575</v>
+        <v>14.2221001092392</v>
       </c>
       <c r="C20">
-        <v>8.925359674150894</v>
+        <v>5.838205748784167</v>
       </c>
       <c r="D20">
-        <v>6.877346942882498</v>
+        <v>8.868873994596255</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>46.83453714002341</v>
+        <v>45.55380996502045</v>
       </c>
       <c r="G20">
-        <v>2.115308511155012</v>
+        <v>3.729819069066306</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>34.38334231336513</v>
+        <v>37.10001661747788</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.07275085545117</v>
+        <v>12.36431602366656</v>
       </c>
       <c r="L20">
-        <v>7.601597735679739</v>
+        <v>11.03543338423399</v>
       </c>
       <c r="M20">
-        <v>10.94928785093286</v>
+        <v>15.64288544566175</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.63129398281145</v>
+        <v>14.37204432245923</v>
       </c>
       <c r="C21">
-        <v>9.468316983493796</v>
+        <v>6.07980189518286</v>
       </c>
       <c r="D21">
-        <v>6.872913484209013</v>
+        <v>8.881931686554925</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>48.81936469891959</v>
+        <v>46.06770529451062</v>
       </c>
       <c r="G21">
-        <v>2.103917780666105</v>
+        <v>3.726320600644605</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>35.51140544571187</v>
+        <v>37.36232790558853</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.92418455833752</v>
+        <v>12.48004115316237</v>
       </c>
       <c r="L21">
-        <v>7.778438365650386</v>
+        <v>11.04177885720414</v>
       </c>
       <c r="M21">
-        <v>11.331975946823</v>
+        <v>15.65723075294621</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.25570362852268</v>
+        <v>14.47319647460252</v>
       </c>
       <c r="C22">
-        <v>9.813536716553047</v>
+        <v>6.231841737244979</v>
       </c>
       <c r="D22">
-        <v>6.869919900358873</v>
+        <v>8.890231130613198</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>50.10772010297958</v>
+        <v>46.40586776589978</v>
       </c>
       <c r="G22">
-        <v>2.096523333459687</v>
+        <v>3.724117365263377</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>36.25060793931252</v>
+        <v>37.53611619144147</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.46288011770717</v>
+        <v>12.55841643595024</v>
       </c>
       <c r="L22">
-        <v>7.89660148938895</v>
+        <v>11.04730026996979</v>
       </c>
       <c r="M22">
-        <v>11.58412391774948</v>
+        <v>15.66932801517274</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.92428551322265</v>
+        <v>14.41893142463049</v>
       </c>
       <c r="C23">
-        <v>9.630141902819178</v>
+        <v>6.151235714592501</v>
       </c>
       <c r="D23">
-        <v>6.871526511766725</v>
+        <v>8.885822931297426</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>49.4209186251847</v>
+        <v>46.22519692384521</v>
       </c>
       <c r="G23">
-        <v>2.100466268873248</v>
+        <v>3.725285686168244</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>35.85590122343971</v>
+        <v>37.44315529334899</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.17695477900754</v>
+        <v>12.51634267656352</v>
       </c>
       <c r="L23">
-        <v>7.833297406203704</v>
+        <v>11.04422798868453</v>
       </c>
       <c r="M23">
-        <v>11.44936804796075</v>
+        <v>15.66262330217727</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.62794325599756</v>
+        <v>14.21970491069654</v>
       </c>
       <c r="C24">
-        <v>8.916317182640405</v>
+        <v>5.834159201687124</v>
       </c>
       <c r="D24">
-        <v>6.877417802062605</v>
+        <v>8.868656594604046</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>46.80195073150043</v>
+        <v>45.5454547049178</v>
       </c>
       <c r="G24">
-        <v>2.11549573707094</v>
+        <v>3.72987766061566</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>34.3649379953227</v>
+        <v>37.09577085841634</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.05852632084827</v>
+        <v>12.36247250238418</v>
       </c>
       <c r="L24">
-        <v>7.598750829218286</v>
+        <v>11.03535294543642</v>
       </c>
       <c r="M24">
-        <v>10.94306930385436</v>
+        <v>15.64269711140643</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.13762051266368</v>
+        <v>14.0193729393401</v>
       </c>
       <c r="C25">
-        <v>8.102658618083332</v>
+        <v>5.467535764169174</v>
       </c>
       <c r="D25">
-        <v>6.88336753057433</v>
+        <v>8.849124047095046</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>43.94171319285572</v>
+        <v>44.82447616590586</v>
       </c>
       <c r="G25">
-        <v>2.132011102734113</v>
+        <v>3.735190875811095</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>32.765658572977</v>
+        <v>36.73199043965541</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.77220692651267</v>
+        <v>12.20900214093454</v>
       </c>
       <c r="L25">
-        <v>7.356805281390064</v>
+        <v>11.03171149984195</v>
       </c>
       <c r="M25">
-        <v>10.406702632125</v>
+        <v>15.63296621154018</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_29/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_29/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.88541484504435</v>
+        <v>12.0029718404787</v>
       </c>
       <c r="C2">
-        <v>5.177136891415603</v>
+        <v>7.463805630330275</v>
       </c>
       <c r="D2">
-        <v>8.833855649848598</v>
+        <v>6.887406922638249</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>44.30655457852706</v>
+        <v>41.81081372310155</v>
       </c>
       <c r="G2">
-        <v>3.739416386551787</v>
+        <v>2.144521774936555</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>36.47434230969247</v>
+        <v>31.59739328524228</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.10747298028357</v>
+        <v>10.75258706200539</v>
       </c>
       <c r="L2">
-        <v>11.03415644067324</v>
+        <v>7.188156382857875</v>
       </c>
       <c r="M2">
-        <v>15.63597724056909</v>
+        <v>10.02162332100202</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.80354887461018</v>
+        <v>11.30369027185629</v>
       </c>
       <c r="C3">
-        <v>4.968046568627969</v>
+        <v>7.005236272209451</v>
       </c>
       <c r="D3">
-        <v>8.822948447706572</v>
+        <v>6.88993339467803</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>43.96480458125354</v>
+        <v>40.35559017621033</v>
       </c>
       <c r="G3">
-        <v>3.742477462450222</v>
+        <v>2.153258343759596</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>36.30647604017987</v>
+        <v>30.81284998576561</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>12.04614633208203</v>
+        <v>10.01465942216825</v>
       </c>
       <c r="L3">
-        <v>11.03902050425428</v>
+        <v>7.079818172338441</v>
       </c>
       <c r="M3">
-        <v>15.64438632396853</v>
+        <v>9.767748453298488</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.75782338809849</v>
+        <v>10.86227486692998</v>
       </c>
       <c r="C4">
-        <v>4.833807079950862</v>
+        <v>6.710860959579093</v>
       </c>
       <c r="D4">
-        <v>8.815973170676974</v>
+        <v>6.891380696655778</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>43.75991431535026</v>
+        <v>39.45856950343123</v>
       </c>
       <c r="G4">
-        <v>3.744454971577026</v>
+        <v>2.158761600981325</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>36.20685230721862</v>
+        <v>30.3353068168301</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>12.01227811495379</v>
+        <v>9.537917057473063</v>
       </c>
       <c r="L4">
-        <v>11.04359143774879</v>
+        <v>7.016251536339822</v>
       </c>
       <c r="M4">
-        <v>15.65269541525561</v>
+        <v>9.615733449827808</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.74035141856255</v>
+        <v>10.67955690546518</v>
       </c>
       <c r="C5">
-        <v>4.777666547857674</v>
+        <v>6.587663979245562</v>
       </c>
       <c r="D5">
-        <v>8.813060433295707</v>
+        <v>6.891944299812488</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>43.67772037332951</v>
+        <v>39.09248964210465</v>
       </c>
       <c r="G5">
-        <v>3.745285551951484</v>
+        <v>2.16104077259268</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>36.16713944867798</v>
+        <v>30.14185942781574</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.99944215502729</v>
+        <v>9.337624108228953</v>
       </c>
       <c r="L5">
-        <v>11.04585290051465</v>
+        <v>6.99109281712745</v>
       </c>
       <c r="M5">
-        <v>15.65687307592258</v>
+        <v>9.554816379026395</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.73752090213602</v>
+        <v>10.64905191995353</v>
       </c>
       <c r="C6">
-        <v>4.768258827899938</v>
+        <v>6.567011495876765</v>
       </c>
       <c r="D6">
-        <v>8.812572523446702</v>
+        <v>6.892036302265583</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>43.66415229194309</v>
+        <v>39.0316807698719</v>
       </c>
       <c r="G6">
-        <v>3.745424965351138</v>
+        <v>2.161421479846722</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>36.16059908766457</v>
+        <v>30.1098106709418</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.99736943603819</v>
+        <v>9.304000299961722</v>
       </c>
       <c r="L6">
-        <v>11.04625250810413</v>
+        <v>6.986960295848801</v>
       </c>
       <c r="M6">
-        <v>15.65761459741077</v>
+        <v>9.544765089542345</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.75758302743721</v>
+        <v>10.85982186786458</v>
       </c>
       <c r="C7">
-        <v>4.833055715434798</v>
+        <v>6.709212599337544</v>
       </c>
       <c r="D7">
-        <v>8.815934173349605</v>
+        <v>6.891388403707811</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>43.75880048026967</v>
+        <v>39.45363411118665</v>
       </c>
       <c r="G7">
-        <v>3.744466072831117</v>
+        <v>2.158792188648193</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>36.20631312125705</v>
+        <v>30.33269309342214</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>12.01210107841762</v>
+        <v>9.535240285730843</v>
       </c>
       <c r="L7">
-        <v>11.04362032161398</v>
+        <v>7.015909217036993</v>
       </c>
       <c r="M7">
-        <v>15.65274855080376</v>
+        <v>9.614907651679722</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.85625756931396</v>
+        <v>11.76446308373935</v>
       </c>
       <c r="C8">
-        <v>5.106278207922705</v>
+        <v>7.308337733845994</v>
       </c>
       <c r="D8">
-        <v>8.830152410325571</v>
+        <v>6.888299615658124</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>44.18772757567174</v>
+        <v>41.30997535364551</v>
       </c>
       <c r="G8">
-        <v>3.74045155914135</v>
+        <v>2.147506300004625</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>36.41575768428031</v>
+        <v>31.32607878200263</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.08555019053257</v>
+        <v>10.50301540842451</v>
       </c>
       <c r="L8">
-        <v>11.03550497848291</v>
+        <v>7.150190076492752</v>
       </c>
       <c r="M8">
-        <v>15.63822419897297</v>
+        <v>9.933319608827816</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.08481689159845</v>
+        <v>13.65228200089936</v>
       </c>
       <c r="C9">
-        <v>5.594265066301577</v>
+        <v>8.382788414325342</v>
       </c>
       <c r="D9">
-        <v>8.85584048633187</v>
+        <v>6.881416743557992</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>45.0654905555968</v>
+        <v>44.90953155113235</v>
       </c>
       <c r="G9">
-        <v>3.733352676677505</v>
+        <v>2.126399027025604</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>36.8529982759777</v>
+        <v>33.30308526791138</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.25896320958884</v>
+        <v>12.21653039275742</v>
       </c>
       <c r="L9">
-        <v>11.03214331617741</v>
+        <v>7.43683289779847</v>
       </c>
       <c r="M9">
-        <v>15.63466681889311</v>
+        <v>10.58596252924396</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.27268343601058</v>
+        <v>14.98684763985339</v>
       </c>
       <c r="C10">
-        <v>5.922184962427582</v>
+        <v>9.113384708515412</v>
       </c>
       <c r="D10">
-        <v>8.873395296671536</v>
+        <v>6.875851050348257</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>45.72910486230094</v>
+        <v>47.51572760616259</v>
       </c>
       <c r="G10">
-        <v>3.728603131154698</v>
+        <v>2.111397042284252</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>37.18923819076663</v>
+        <v>34.76894833068592</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>12.40328807448879</v>
+        <v>13.3681928008075</v>
       </c>
       <c r="L10">
-        <v>11.03729639017278</v>
+        <v>7.661538940106576</v>
       </c>
       <c r="M10">
-        <v>15.64718323627674</v>
+        <v>11.07977579281114</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.36214089985726</v>
+        <v>15.56855798669263</v>
       </c>
       <c r="C11">
-        <v>6.064486679814562</v>
+        <v>9.433703931641613</v>
       </c>
       <c r="D11">
-        <v>8.881099263189654</v>
+        <v>6.873206336787358</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>46.03426382672212</v>
+        <v>48.69126250789372</v>
       </c>
       <c r="G11">
-        <v>3.726542437586641</v>
+        <v>2.104652660199362</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>37.34519065000958</v>
+        <v>35.4381953329659</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>12.47238007679264</v>
+        <v>13.87006075523783</v>
       </c>
       <c r="L11">
-        <v>11.0412874692555</v>
+        <v>7.766828948440424</v>
       </c>
       <c r="M11">
-        <v>15.65614228359717</v>
+        <v>11.30705709189016</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.39656034159565</v>
+        <v>15.78530055044502</v>
       </c>
       <c r="C12">
-        <v>6.117369318971424</v>
+        <v>9.553342053260424</v>
       </c>
       <c r="D12">
-        <v>8.883976333551438</v>
+        <v>6.872188385337961</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>46.15022155391897</v>
+        <v>49.13489311629073</v>
       </c>
       <c r="G12">
-        <v>3.725776380904286</v>
+        <v>2.102107545125032</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>37.40465217610114</v>
+        <v>35.69195658217914</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>12.49901604456159</v>
+        <v>14.05704933518583</v>
       </c>
       <c r="L12">
-        <v>11.04303467026</v>
+        <v>7.807143373545467</v>
       </c>
       <c r="M12">
-        <v>15.66000206450005</v>
+        <v>11.3934744124297</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.38912381286174</v>
+        <v>15.7387766105991</v>
       </c>
       <c r="C13">
-        <v>6.106024971203334</v>
+        <v>9.52764842831462</v>
       </c>
       <c r="D13">
-        <v>8.883358491064888</v>
+        <v>6.872408355494565</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>46.12523129482398</v>
+        <v>49.03941742693687</v>
       </c>
       <c r="G13">
-        <v>3.725940730966969</v>
+        <v>2.102655333867347</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>37.39182843443288</v>
+        <v>35.63728974665645</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>12.49325886638459</v>
+        <v>14.01691214552027</v>
       </c>
       <c r="L13">
-        <v>11.04264790558506</v>
+        <v>7.798441158803188</v>
       </c>
       <c r="M13">
-        <v>15.65915005461239</v>
+        <v>11.37484764479261</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.36496188875662</v>
+        <v>15.58645975547507</v>
       </c>
       <c r="C14">
-        <v>6.068857568162746</v>
+        <v>9.443579455708505</v>
       </c>
       <c r="D14">
-        <v>8.881336766737137</v>
+        <v>6.873122920609707</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>46.04379611593919</v>
+        <v>48.72779092023288</v>
       </c>
       <c r="G14">
-        <v>3.726479127852905</v>
+        <v>2.104443111304107</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>37.3500746003434</v>
+        <v>35.45906576244889</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>12.47456209736385</v>
+        <v>13.88550503921487</v>
       </c>
       <c r="L14">
-        <v>11.04142649134038</v>
+        <v>7.77013673289325</v>
       </c>
       <c r="M14">
-        <v>15.65645048173418</v>
+        <v>11.31415979542817</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.35023190486968</v>
+        <v>15.49270401895838</v>
       </c>
       <c r="C15">
-        <v>6.045960293206758</v>
+        <v>9.39187089742806</v>
       </c>
       <c r="D15">
-        <v>8.88009316778207</v>
+        <v>6.873558461640461</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>45.99396478653292</v>
+        <v>48.53671168399132</v>
       </c>
       <c r="G15">
-        <v>3.726810769165779</v>
+        <v>2.105539243056487</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>37.32455125226046</v>
+        <v>35.34994165841137</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>12.46317062697374</v>
+        <v>13.80461958825247</v>
       </c>
       <c r="L15">
-        <v>11.04070902608637</v>
+        <v>7.752857303140513</v>
       </c>
       <c r="M15">
-        <v>15.65485768082639</v>
+        <v>11.27703173596944</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.26691498459742</v>
+        <v>14.94832992374013</v>
       </c>
       <c r="C16">
-        <v>5.912745528258938</v>
+        <v>9.092214750765375</v>
       </c>
       <c r="D16">
-        <v>8.872886176759872</v>
+        <v>6.876021599503297</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>45.70922193389225</v>
+        <v>47.43869380165216</v>
       </c>
       <c r="G16">
-        <v>3.728739805515866</v>
+        <v>2.11183919213054</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>37.17910448373631</v>
+        <v>34.72525815334727</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>12.39884006707783</v>
+        <v>13.33496043700747</v>
       </c>
       <c r="L16">
-        <v>11.03706862470971</v>
+        <v>7.654719867267779</v>
       </c>
       <c r="M16">
-        <v>15.64666325320147</v>
+        <v>11.06497287383065</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.21680468947868</v>
+        <v>14.60794720340772</v>
       </c>
       <c r="C17">
-        <v>5.829250593848502</v>
+        <v>8.905350404128939</v>
       </c>
       <c r="D17">
-        <v>8.86839293660697</v>
+        <v>6.877503605929332</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>45.53533082021609</v>
+        <v>46.76245156092302</v>
       </c>
       <c r="G17">
-        <v>3.729948734715691</v>
+        <v>2.115722696716661</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>37.09062722166485</v>
+        <v>34.34263468330931</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.36024051239285</v>
+        <v>13.04127272795434</v>
       </c>
       <c r="L17">
-        <v>11.03525652702186</v>
+        <v>7.59530254556189</v>
       </c>
       <c r="M17">
-        <v>15.64247098062624</v>
+        <v>10.9355345416199</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.18836061859751</v>
+        <v>14.40977074217967</v>
       </c>
       <c r="C18">
-        <v>5.780580575055781</v>
+        <v>8.796733555061238</v>
       </c>
       <c r="D18">
-        <v>8.865782003098218</v>
+        <v>6.878345411692208</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>45.43562602549078</v>
+        <v>46.37255096393149</v>
       </c>
       <c r="G18">
-        <v>3.730653486614445</v>
+        <v>2.117964100510996</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>37.04002091506272</v>
+        <v>34.12278678337444</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.33836404633424</v>
+        <v>12.87027072417947</v>
       </c>
       <c r="L18">
-        <v>11.0343693371328</v>
+        <v>7.561415984506261</v>
       </c>
       <c r="M18">
-        <v>15.64036720126229</v>
+        <v>10.8613349717645</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.17879579414981</v>
+        <v>14.34225662619715</v>
       </c>
       <c r="C19">
-        <v>5.763991333965127</v>
+        <v>8.759760426102268</v>
       </c>
       <c r="D19">
-        <v>8.864893419248943</v>
+        <v>6.878628617281807</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>45.40192355566759</v>
+        <v>46.24037850357192</v>
       </c>
       <c r="G19">
-        <v>3.730893721802406</v>
+        <v>2.118724403704103</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>37.02293592479858</v>
+        <v>34.0483899759918</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.3310135213689</v>
+        <v>12.8120118484225</v>
       </c>
       <c r="L19">
-        <v>11.03409561243521</v>
+        <v>7.549992150780384</v>
       </c>
       <c r="M19">
-        <v>15.63970777823278</v>
+        <v>10.83625625937525</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.2221001092392</v>
+        <v>14.64442886284578</v>
       </c>
       <c r="C20">
-        <v>5.838205748784167</v>
+        <v>8.925359674150879</v>
       </c>
       <c r="D20">
-        <v>8.868873994596255</v>
+        <v>6.877346942882285</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>45.55380996502045</v>
+        <v>46.83453714002348</v>
       </c>
       <c r="G20">
-        <v>3.729819069066306</v>
+        <v>2.115308511155138</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>37.10001661747788</v>
+        <v>34.38334231336516</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.36431602366656</v>
+        <v>13.07275085545121</v>
       </c>
       <c r="L20">
-        <v>11.03543338423399</v>
+        <v>7.601597735679714</v>
       </c>
       <c r="M20">
-        <v>15.64288544566175</v>
+        <v>10.94928785093283</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.37204432245923</v>
+        <v>15.63129398281152</v>
       </c>
       <c r="C21">
-        <v>6.07980189518286</v>
+        <v>9.468316983493756</v>
       </c>
       <c r="D21">
-        <v>8.881931686554925</v>
+        <v>6.872913484208926</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>46.06770529451062</v>
+        <v>48.81936469891968</v>
       </c>
       <c r="G21">
-        <v>3.726320600644605</v>
+        <v>2.103917780666502</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>37.36232790558853</v>
+        <v>35.51140544571189</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>12.48004115316237</v>
+        <v>13.92418455833757</v>
       </c>
       <c r="L21">
-        <v>11.04177885720414</v>
+        <v>7.778438365650396</v>
       </c>
       <c r="M21">
-        <v>15.65723075294621</v>
+        <v>11.33197594682298</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.47319647460252</v>
+        <v>16.25570362852273</v>
       </c>
       <c r="C22">
-        <v>6.231841737244979</v>
+        <v>9.813536716552832</v>
       </c>
       <c r="D22">
-        <v>8.890231130613198</v>
+        <v>6.869919900358782</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>46.40586776589978</v>
+        <v>50.10772010297969</v>
       </c>
       <c r="G22">
-        <v>3.724117365263377</v>
+        <v>2.09652333345956</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>37.53611619144147</v>
+        <v>36.25060793931257</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>12.55841643595024</v>
+        <v>14.46288011770713</v>
       </c>
       <c r="L22">
-        <v>11.04730026996979</v>
+        <v>7.896601489388984</v>
       </c>
       <c r="M22">
-        <v>15.66932801517274</v>
+        <v>11.58412391774947</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.41893142463049</v>
+        <v>15.92428551322273</v>
       </c>
       <c r="C23">
-        <v>6.151235714592501</v>
+        <v>9.630141902819263</v>
       </c>
       <c r="D23">
-        <v>8.885822931297426</v>
+        <v>6.871526511766524</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>46.22519692384521</v>
+        <v>49.4209186251848</v>
       </c>
       <c r="G23">
-        <v>3.725285686168244</v>
+        <v>2.100466268873381</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>37.44315529334899</v>
+        <v>35.85590122343977</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>12.51634267656352</v>
+        <v>14.17695477900765</v>
       </c>
       <c r="L23">
-        <v>11.04422798868453</v>
+        <v>7.8332974062037</v>
       </c>
       <c r="M23">
-        <v>15.66262330217727</v>
+        <v>11.44936804796073</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.21970491069654</v>
+        <v>14.62794325599756</v>
       </c>
       <c r="C24">
-        <v>5.834159201687124</v>
+        <v>8.916317182640404</v>
       </c>
       <c r="D24">
-        <v>8.868656594604046</v>
+        <v>6.877417802062626</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>45.5454547049178</v>
+        <v>46.80195073150043</v>
       </c>
       <c r="G24">
-        <v>3.72987766061566</v>
+        <v>2.115495737070676</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>37.09577085841634</v>
+        <v>34.36493799532267</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.36247250238418</v>
+        <v>13.05852632084831</v>
       </c>
       <c r="L24">
-        <v>11.03535294543642</v>
+        <v>7.598750829218259</v>
       </c>
       <c r="M24">
-        <v>15.64269711140643</v>
+        <v>10.94306930385432</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.0193729393401</v>
+        <v>13.13762051266373</v>
       </c>
       <c r="C25">
-        <v>5.467535764169174</v>
+        <v>8.102658618083344</v>
       </c>
       <c r="D25">
-        <v>8.849124047095046</v>
+        <v>6.883367530574303</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>44.82447616590586</v>
+        <v>43.9417131928559</v>
       </c>
       <c r="G25">
-        <v>3.735190875811095</v>
+        <v>2.132011102733983</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>36.73199043965541</v>
+        <v>32.76565857297712</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.20900214093454</v>
+        <v>11.77220692651274</v>
       </c>
       <c r="L25">
-        <v>11.03171149984195</v>
+        <v>7.35680528139015</v>
       </c>
       <c r="M25">
-        <v>15.63296621154018</v>
+        <v>10.40670263212502</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_29/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_29/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.0029718404787</v>
+        <v>18.15387733920504</v>
       </c>
       <c r="C2">
-        <v>7.463805630330275</v>
+        <v>13.97823155785015</v>
       </c>
       <c r="D2">
-        <v>6.887406922638249</v>
+        <v>4.66710951644585</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>41.81081372310155</v>
+        <v>16.81281691534357</v>
       </c>
       <c r="G2">
-        <v>2.144521774936555</v>
+        <v>20.61184941766145</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.969530882771919</v>
       </c>
       <c r="I2">
-        <v>31.59739328524228</v>
+        <v>2.709086426253481</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>8.126323266506914</v>
       </c>
       <c r="K2">
-        <v>10.75258706200539</v>
+        <v>13.38434658509628</v>
       </c>
       <c r="L2">
-        <v>7.188156382857875</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>10.02162332100202</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>7.655103822230114</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>11.91279442894471</v>
+      </c>
+      <c r="P2">
+        <v>12.51167866145948</v>
+      </c>
+      <c r="Q2">
+        <v>13.18835670510504</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.30369027185629</v>
+        <v>16.96869740906331</v>
       </c>
       <c r="C3">
-        <v>7.005236272209451</v>
+        <v>13.54544528356915</v>
       </c>
       <c r="D3">
-        <v>6.88993339467803</v>
+        <v>4.462872507551703</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>40.35559017621033</v>
+        <v>16.31409822871546</v>
       </c>
       <c r="G3">
-        <v>2.153258343759596</v>
+        <v>19.90708013716241</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.134020859743061</v>
       </c>
       <c r="I3">
-        <v>30.81284998576561</v>
+        <v>2.579047082412943</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>8.101164852216272</v>
       </c>
       <c r="K3">
-        <v>10.01465942216825</v>
+        <v>13.44411145615773</v>
       </c>
       <c r="L3">
-        <v>7.079818172338441</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>9.767748453298488</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>7.494257062229062</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>11.36825634487597</v>
+      </c>
+      <c r="P3">
+        <v>12.56708323812351</v>
+      </c>
+      <c r="Q3">
+        <v>13.0079224102319</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.86227486692998</v>
+        <v>16.1942442840131</v>
       </c>
       <c r="C4">
-        <v>6.710860959579093</v>
+        <v>13.27274644917955</v>
       </c>
       <c r="D4">
-        <v>6.891380696655778</v>
+        <v>4.332297153925337</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>39.45856950343123</v>
+        <v>16.00839713836293</v>
       </c>
       <c r="G4">
-        <v>2.158761600981325</v>
+        <v>19.47229510458804</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.23882823294483</v>
       </c>
       <c r="I4">
-        <v>30.3353068168301</v>
+        <v>2.496801906040897</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>8.088661212049553</v>
       </c>
       <c r="K4">
-        <v>9.537917057473063</v>
+        <v>13.48495829229148</v>
       </c>
       <c r="L4">
-        <v>7.016251536339822</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>9.615733449827808</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>7.39358867009755</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>11.01989906243374</v>
+      </c>
+      <c r="P4">
+        <v>12.60363558086352</v>
+      </c>
+      <c r="Q4">
+        <v>12.90182145614806</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.67955690546518</v>
+        <v>15.86239860283919</v>
       </c>
       <c r="C5">
-        <v>6.587663979245562</v>
+        <v>13.16537369384107</v>
       </c>
       <c r="D5">
-        <v>6.891944299812488</v>
+        <v>4.278959841647292</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>39.09248964210465</v>
+        <v>15.87839544722917</v>
       </c>
       <c r="G5">
-        <v>2.16104077259268</v>
+        <v>19.28431230598685</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.282779917610899</v>
       </c>
       <c r="I5">
-        <v>30.14185942781574</v>
+        <v>2.485097244063902</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>8.082658832602171</v>
       </c>
       <c r="K5">
-        <v>9.337624108228953</v>
+        <v>13.49858224408685</v>
       </c>
       <c r="L5">
-        <v>6.99109281712745</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>9.554816379026395</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>7.352156333763202</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>10.87310322759162</v>
+      </c>
+      <c r="P5">
+        <v>12.61992024802935</v>
+      </c>
+      <c r="Q5">
+        <v>12.8555291681785</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.64905191995353</v>
+        <v>15.80112844549378</v>
       </c>
       <c r="C6">
-        <v>6.567011495876765</v>
+        <v>13.15410871573085</v>
       </c>
       <c r="D6">
-        <v>6.892036302265583</v>
+        <v>4.271422784552446</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>39.0316807698719</v>
+        <v>15.84981182394963</v>
       </c>
       <c r="G6">
-        <v>2.161421479846722</v>
+        <v>19.2401734908226</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.290470221199226</v>
       </c>
       <c r="I6">
-        <v>30.1098106709418</v>
+        <v>2.495830145273592</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>8.079706150181124</v>
       </c>
       <c r="K6">
-        <v>9.304000299961722</v>
+        <v>13.4959734441715</v>
       </c>
       <c r="L6">
-        <v>6.986960295848801</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>9.544765089542345</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>7.34530105044325</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>10.84673802731097</v>
+      </c>
+      <c r="P6">
+        <v>12.62360233918972</v>
+      </c>
+      <c r="Q6">
+        <v>12.84271328736918</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.85982186786458</v>
+        <v>16.17527639040356</v>
       </c>
       <c r="C7">
-        <v>6.709212599337544</v>
+        <v>13.28938358865781</v>
       </c>
       <c r="D7">
-        <v>6.891388403707811</v>
+        <v>4.33534482075475</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>39.45363411118665</v>
+        <v>15.98765700767967</v>
       </c>
       <c r="G7">
-        <v>2.158792188648193</v>
+        <v>19.43488482123209</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.240310149025791</v>
       </c>
       <c r="I7">
-        <v>30.33269309342214</v>
+        <v>2.499094074697958</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>8.083128395440999</v>
       </c>
       <c r="K7">
-        <v>9.535240285730843</v>
+        <v>13.4716737351806</v>
       </c>
       <c r="L7">
-        <v>7.015909217036993</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>9.614907651679722</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>7.393181646273963</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>11.01312023601748</v>
+      </c>
+      <c r="P7">
+        <v>12.60648659042123</v>
+      </c>
+      <c r="Q7">
+        <v>12.88705305403138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.76446308373935</v>
+        <v>17.73715267145431</v>
       </c>
       <c r="C8">
-        <v>7.308337733845994</v>
+        <v>13.85385991031835</v>
       </c>
       <c r="D8">
-        <v>6.888299615658124</v>
+        <v>4.602543096899455</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>41.30997535364551</v>
+        <v>16.61665045487377</v>
       </c>
       <c r="G8">
-        <v>2.147506300004625</v>
+        <v>20.32520106943559</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2.026569809244349</v>
       </c>
       <c r="I8">
-        <v>31.32607878200263</v>
+        <v>2.667748195509749</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>8.109881245557496</v>
       </c>
       <c r="K8">
-        <v>10.50301540842451</v>
+        <v>13.38629553515968</v>
       </c>
       <c r="L8">
-        <v>7.150190076492752</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>9.933319608827816</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>7.600302708233091</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>11.72200592286642</v>
+      </c>
+      <c r="P8">
+        <v>12.53401789527398</v>
+      </c>
+      <c r="Q8">
+        <v>13.10681863858833</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.65228200089936</v>
+        <v>20.45386861419323</v>
       </c>
       <c r="C9">
-        <v>8.382788414325342</v>
+        <v>14.87147844341501</v>
       </c>
       <c r="D9">
-        <v>6.881416743557992</v>
+        <v>5.077908549352908</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>44.90953155113235</v>
+        <v>17.87888611531355</v>
       </c>
       <c r="G9">
-        <v>2.126399027025604</v>
+        <v>22.10275437076705</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.635706265997335</v>
       </c>
       <c r="I9">
-        <v>33.30308526791138</v>
+        <v>2.976348949110887</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>8.195893449583075</v>
       </c>
       <c r="K9">
-        <v>12.21653039275742</v>
+        <v>13.2772620388904</v>
       </c>
       <c r="L9">
-        <v>7.43683289779847</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>10.58596252924396</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.989738359109774</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>13.00350022310784</v>
+      </c>
+      <c r="P9">
+        <v>12.40737721637803</v>
+      </c>
+      <c r="Q9">
+        <v>13.59871610342582</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.98684763985339</v>
+        <v>22.18779226592349</v>
       </c>
       <c r="C10">
-        <v>9.113384708515412</v>
+        <v>15.666458405925</v>
       </c>
       <c r="D10">
-        <v>6.875851050348257</v>
+        <v>5.416607742265361</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>47.51572760616259</v>
+        <v>18.71076200723289</v>
       </c>
       <c r="G10">
-        <v>2.111397042284252</v>
+        <v>23.22782209840061</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.743295530942814</v>
       </c>
       <c r="I10">
-        <v>34.76894833068592</v>
+        <v>3.189320911082259</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>8.247540800024034</v>
       </c>
       <c r="K10">
-        <v>13.3681928008075</v>
+        <v>13.1521999923008</v>
       </c>
       <c r="L10">
-        <v>7.661538940106576</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>11.07977579281114</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>8.142528033513747</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>13.75116986140649</v>
+      </c>
+      <c r="P10">
+        <v>12.34818810853636</v>
+      </c>
+      <c r="Q10">
+        <v>13.91402830598513</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.56855798669263</v>
+        <v>22.62534186634298</v>
       </c>
       <c r="C11">
-        <v>9.433703931641613</v>
+        <v>16.74242194496176</v>
       </c>
       <c r="D11">
-        <v>6.873206336787358</v>
+        <v>5.699122343343486</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>48.69126250789372</v>
+        <v>18.40582503462665</v>
       </c>
       <c r="G11">
-        <v>2.104652660199362</v>
+        <v>22.51190122812095</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2.695639378674719</v>
       </c>
       <c r="I11">
-        <v>35.4381953329659</v>
+        <v>3.254319626647272</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>8.054627760309465</v>
       </c>
       <c r="K11">
-        <v>13.87006075523783</v>
+        <v>12.55641123948124</v>
       </c>
       <c r="L11">
-        <v>7.766828948440424</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>11.30705709189016</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>7.247456270886269</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>13.08254605554952</v>
+      </c>
+      <c r="P11">
+        <v>12.51143319954303</v>
+      </c>
+      <c r="Q11">
+        <v>13.51774941253558</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.78530055044502</v>
+        <v>22.65911915909889</v>
       </c>
       <c r="C12">
-        <v>9.553342053260424</v>
+        <v>17.4968488084904</v>
       </c>
       <c r="D12">
-        <v>6.872188385337961</v>
+        <v>5.865581038471989</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>49.13489311629073</v>
+        <v>17.98753594972954</v>
       </c>
       <c r="G12">
-        <v>2.102107545125032</v>
+        <v>21.69931072915768</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.03171361694425</v>
       </c>
       <c r="I12">
-        <v>35.69195658217914</v>
+        <v>3.264583831245802</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>7.884044490873765</v>
       </c>
       <c r="K12">
-        <v>14.05704933518583</v>
+        <v>12.10860084750354</v>
       </c>
       <c r="L12">
-        <v>7.807143373545467</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>11.3934744124297</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.608529548209087</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>12.36096983118895</v>
+      </c>
+      <c r="P12">
+        <v>12.6760826663267</v>
+      </c>
+      <c r="Q12">
+        <v>13.1260948875087</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.7387766105991</v>
+        <v>22.36926979509781</v>
       </c>
       <c r="C13">
-        <v>9.52764842831462</v>
+        <v>18.08222319550543</v>
       </c>
       <c r="D13">
-        <v>6.872408355494565</v>
+        <v>5.9613836182497</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>49.03941742693687</v>
+        <v>17.41829887727399</v>
       </c>
       <c r="G13">
-        <v>2.102655333867347</v>
+        <v>20.69195614778297</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.48908820118154</v>
       </c>
       <c r="I13">
-        <v>35.63728974665645</v>
+        <v>3.237056956745045</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>7.710811593289598</v>
       </c>
       <c r="K13">
-        <v>14.01691214552027</v>
+        <v>11.73034306421352</v>
       </c>
       <c r="L13">
-        <v>7.798441158803188</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>11.37484764479261</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.168500739465768</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>11.53155928510546</v>
+      </c>
+      <c r="P13">
+        <v>12.85025343428476</v>
+      </c>
+      <c r="Q13">
+        <v>12.6874321400182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.58645975547507</v>
+        <v>22.01250522524533</v>
       </c>
       <c r="C14">
-        <v>9.443579455708505</v>
+        <v>18.42795916256145</v>
       </c>
       <c r="D14">
-        <v>6.873122920609707</v>
+        <v>5.998575232375583</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>48.72779092023288</v>
+        <v>16.94087423663768</v>
       </c>
       <c r="G14">
-        <v>2.104443111304107</v>
+        <v>19.87855771703697</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.511324788733368</v>
       </c>
       <c r="I14">
-        <v>35.45906576244889</v>
+        <v>3.201858874084301</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>7.587000087422367</v>
       </c>
       <c r="K14">
-        <v>13.88550503921487</v>
+        <v>11.4999281416085</v>
       </c>
       <c r="L14">
-        <v>7.77013673289325</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>11.31415979542817</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>6.000875400455662</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>10.8929570413602</v>
+      </c>
+      <c r="P14">
+        <v>12.977675823091</v>
+      </c>
+      <c r="Q14">
+        <v>12.35371799434445</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.49270401895838</v>
+        <v>21.85036430736276</v>
       </c>
       <c r="C15">
-        <v>9.39187089742806</v>
+        <v>18.48045335007186</v>
       </c>
       <c r="D15">
-        <v>6.873558461640461</v>
+        <v>5.993727215917817</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>48.53671168399132</v>
+        <v>16.78621779149161</v>
       </c>
       <c r="G15">
-        <v>2.105539243056487</v>
+        <v>19.62712602440914</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.747812121897892</v>
       </c>
       <c r="I15">
-        <v>35.34994165841137</v>
+        <v>3.18601734530959</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>7.555130556226615</v>
       </c>
       <c r="K15">
-        <v>13.80461958825247</v>
+        <v>11.45463533557782</v>
       </c>
       <c r="L15">
-        <v>7.752857303140513</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>11.27703173596944</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.980581750850919</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>10.71219574939503</v>
+      </c>
+      <c r="P15">
+        <v>13.00944265243791</v>
+      </c>
+      <c r="Q15">
+        <v>12.25876430220592</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.94832992374013</v>
+        <v>21.17266076729305</v>
       </c>
       <c r="C16">
-        <v>9.092214750765375</v>
+        <v>18.06457550651885</v>
       </c>
       <c r="D16">
-        <v>6.876021599503297</v>
+        <v>5.842504497269505</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>47.43869380165216</v>
+        <v>16.50371252592801</v>
       </c>
       <c r="G16">
-        <v>2.11183919213054</v>
+        <v>19.26891070473512</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.535895140399985</v>
       </c>
       <c r="I16">
-        <v>34.72525815334727</v>
+        <v>3.102249663309565</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>7.561943504853829</v>
       </c>
       <c r="K16">
-        <v>13.33496043700747</v>
+        <v>11.58302536280497</v>
       </c>
       <c r="L16">
-        <v>7.654719867267779</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>11.06497287383065</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.991049167445459</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>10.51731071243913</v>
+      </c>
+      <c r="P16">
+        <v>12.98608887745688</v>
+      </c>
+      <c r="Q16">
+        <v>12.18970356056329</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.60794720340772</v>
+        <v>20.84001920718005</v>
       </c>
       <c r="C17">
-        <v>8.905350404128939</v>
+        <v>17.54874164642449</v>
       </c>
       <c r="D17">
-        <v>6.877503605929332</v>
+        <v>5.703695688733219</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>46.76245156092302</v>
+        <v>16.54998588093537</v>
       </c>
       <c r="G17">
-        <v>2.115722696716661</v>
+        <v>19.44412491437158</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.796695474413242</v>
       </c>
       <c r="I17">
-        <v>34.34263468330931</v>
+        <v>3.056769544481456</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>7.63382408761204</v>
       </c>
       <c r="K17">
-        <v>13.04127272795434</v>
+        <v>11.79986153253724</v>
       </c>
       <c r="L17">
-        <v>7.59530254556189</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>10.9355345416199</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6.064789807868882</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>10.71831975418325</v>
+      </c>
+      <c r="P17">
+        <v>12.90209409606218</v>
+      </c>
+      <c r="Q17">
+        <v>12.31827263292347</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.40977074217967</v>
+        <v>20.78797549460063</v>
       </c>
       <c r="C18">
-        <v>8.796733555061238</v>
+        <v>16.88711704361958</v>
       </c>
       <c r="D18">
-        <v>6.878345411692208</v>
+        <v>5.559112066963767</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>46.37255096393149</v>
+        <v>16.89446657765158</v>
       </c>
       <c r="G18">
-        <v>2.117964100510996</v>
+        <v>20.11789898684541</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.540807534200376</v>
       </c>
       <c r="I18">
-        <v>34.12278678337444</v>
+        <v>3.03767857786567</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>7.772042272045416</v>
       </c>
       <c r="K18">
-        <v>12.87027072417947</v>
+        <v>12.13490311467035</v>
       </c>
       <c r="L18">
-        <v>7.561415984506261</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>10.8613349717645</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.328803071063506</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>11.28944312928794</v>
+      </c>
+      <c r="P18">
+        <v>12.7601037787192</v>
+      </c>
+      <c r="Q18">
+        <v>12.63775121081245</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.34225662619715</v>
+        <v>20.94548808314139</v>
       </c>
       <c r="C19">
-        <v>8.759760426102268</v>
+        <v>16.22038372844855</v>
       </c>
       <c r="D19">
-        <v>6.878628617281807</v>
+        <v>5.429676723397528</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>46.24037850357192</v>
+        <v>17.41307915716146</v>
       </c>
       <c r="G19">
-        <v>2.118724403704103</v>
+        <v>21.07113161552169</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.048192313985401</v>
       </c>
       <c r="I19">
-        <v>34.0483899759918</v>
+        <v>3.05192997633757</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>7.942817869151727</v>
       </c>
       <c r="K19">
-        <v>12.8120118484225</v>
+        <v>12.53562091807656</v>
       </c>
       <c r="L19">
-        <v>7.549992150780384</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>10.83625625937525</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.886400078269932</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>12.10320761879619</v>
+      </c>
+      <c r="P19">
+        <v>12.60090319476905</v>
+      </c>
+      <c r="Q19">
+        <v>13.05881084824309</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.64442886284578</v>
+        <v>21.71055547137941</v>
       </c>
       <c r="C20">
-        <v>8.925359674150879</v>
+        <v>15.51595953643609</v>
       </c>
       <c r="D20">
-        <v>6.877346942882285</v>
+        <v>5.340355867348446</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>46.83453714002348</v>
+        <v>18.43830626892862</v>
       </c>
       <c r="G20">
-        <v>2.115308511155138</v>
+        <v>22.83529522643514</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1.672870330682336</v>
       </c>
       <c r="I20">
-        <v>34.38334231336516</v>
+        <v>3.143228075803172</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>8.215473033685665</v>
       </c>
       <c r="K20">
-        <v>13.07275085545121</v>
+        <v>13.1394228125296</v>
       </c>
       <c r="L20">
-        <v>7.601597735679714</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>10.94928785093283</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>8.098048527332796</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>13.54183849222653</v>
+      </c>
+      <c r="P20">
+        <v>12.37382102653981</v>
+      </c>
+      <c r="Q20">
+        <v>13.7863163446368</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.63129398281152</v>
+        <v>23.03342407470941</v>
       </c>
       <c r="C21">
-        <v>9.468316983493756</v>
+        <v>15.97999414415865</v>
       </c>
       <c r="D21">
-        <v>6.872913484208926</v>
+        <v>5.565595500352822</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>48.81936469891968</v>
+        <v>19.20112815566971</v>
       </c>
       <c r="G21">
-        <v>2.103917780666502</v>
+        <v>23.92168787534791</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1.877122417870611</v>
       </c>
       <c r="I21">
-        <v>35.51140544571189</v>
+        <v>3.30804923541214</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>8.301319262866235</v>
       </c>
       <c r="K21">
-        <v>13.92418455833757</v>
+        <v>13.15513434104645</v>
       </c>
       <c r="L21">
-        <v>7.778438365650396</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>11.33197594682298</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>8.400590567649409</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>14.27197486849206</v>
+      </c>
+      <c r="P21">
+        <v>12.30225480870229</v>
+      </c>
+      <c r="Q21">
+        <v>14.13743856191544</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.25570362852273</v>
+        <v>23.85392601388523</v>
       </c>
       <c r="C22">
-        <v>9.813536716552832</v>
+        <v>16.29526597481545</v>
       </c>
       <c r="D22">
-        <v>6.869919900358782</v>
+        <v>5.711457902677724</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>50.10772010297969</v>
+        <v>19.67629758240193</v>
       </c>
       <c r="G22">
-        <v>2.09652333345956</v>
+        <v>24.58872890385903</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.003911755771963</v>
       </c>
       <c r="I22">
-        <v>36.25060793931257</v>
+        <v>3.408132975626078</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>8.354696068756814</v>
       </c>
       <c r="K22">
-        <v>14.46288011770713</v>
+        <v>13.15628655279744</v>
       </c>
       <c r="L22">
-        <v>7.896601489388984</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>11.58412391774947</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>8.532819830659655</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>14.67947003319378</v>
+      </c>
+      <c r="P22">
+        <v>12.26316068483815</v>
+      </c>
+      <c r="Q22">
+        <v>14.35557816404082</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.92428551322273</v>
+        <v>23.43204864745518</v>
       </c>
       <c r="C23">
-        <v>9.630141902819263</v>
+        <v>16.10882057040766</v>
       </c>
       <c r="D23">
-        <v>6.871526511766524</v>
+        <v>5.630459980457782</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>49.4209186251848</v>
+        <v>19.44172953167063</v>
       </c>
       <c r="G23">
-        <v>2.100466268873381</v>
+        <v>24.26688945128025</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1.937291074107819</v>
       </c>
       <c r="I23">
-        <v>35.85590122343977</v>
+        <v>3.351327954191115</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>8.332053691212685</v>
       </c>
       <c r="K23">
-        <v>14.17695477900765</v>
+        <v>13.17089290888236</v>
       </c>
       <c r="L23">
-        <v>7.8332974062037</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>11.44936804796073</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>8.462168558812769</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>14.46783641600681</v>
+      </c>
+      <c r="P23">
+        <v>12.2796936576963</v>
+      </c>
+      <c r="Q23">
+        <v>14.25387823257494</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.62794325599756</v>
+        <v>21.73570519659834</v>
       </c>
       <c r="C24">
-        <v>8.916317182640404</v>
+        <v>15.41614928642205</v>
       </c>
       <c r="D24">
-        <v>6.877417802062626</v>
+        <v>5.318789803427646</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>46.80195073150043</v>
+        <v>18.51623489250041</v>
       </c>
       <c r="G24">
-        <v>2.115495737070676</v>
+        <v>22.9804732046512</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.678012121182494</v>
       </c>
       <c r="I24">
-        <v>34.36493799532267</v>
+        <v>3.137774756725117</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>8.242867259807202</v>
       </c>
       <c r="K24">
-        <v>13.05852632084831</v>
+        <v>13.21179057825122</v>
       </c>
       <c r="L24">
-        <v>7.598750829218259</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>10.94306930385432</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>8.190092948491818</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>13.62908239026547</v>
+      </c>
+      <c r="P24">
+        <v>12.35424781939975</v>
+      </c>
+      <c r="Q24">
+        <v>13.85233984717803</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.13762051266373</v>
+        <v>19.73631776813637</v>
       </c>
       <c r="C25">
-        <v>8.102658618083344</v>
+        <v>14.63356750017839</v>
       </c>
       <c r="D25">
-        <v>6.883367530574303</v>
+        <v>4.960103601574033</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>43.9417131928559</v>
+        <v>17.50752175869462</v>
       </c>
       <c r="G25">
-        <v>2.132011102733983</v>
+        <v>21.56950779713044</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.739722913624916</v>
       </c>
       <c r="I25">
-        <v>32.76565857297712</v>
+        <v>2.899631582997358</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>8.160354713641276</v>
       </c>
       <c r="K25">
-        <v>11.77220692651274</v>
+        <v>13.27868309641516</v>
       </c>
       <c r="L25">
-        <v>7.35680528139015</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>10.40670263212502</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.886708979986139</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>12.66235325786634</v>
+      </c>
+      <c r="P25">
+        <v>12.4449676051736</v>
+      </c>
+      <c r="Q25">
+        <v>13.43755710075326</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_29/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_29/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.15387733920504</v>
+        <v>17.96736358726653</v>
       </c>
       <c r="C2">
-        <v>13.97823155785015</v>
+        <v>13.99027973288475</v>
       </c>
       <c r="D2">
-        <v>4.66710951644585</v>
+        <v>4.723412185649102</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>16.81281691534357</v>
+        <v>16.52152406779598</v>
       </c>
       <c r="G2">
-        <v>20.61184941766145</v>
+        <v>19.41776891801102</v>
       </c>
       <c r="H2">
-        <v>1.969530882771919</v>
+        <v>1.944420491862278</v>
       </c>
       <c r="I2">
-        <v>2.709086426253481</v>
+        <v>2.741629241084343</v>
       </c>
       <c r="J2">
-        <v>8.126323266506914</v>
+        <v>8.654563058698155</v>
       </c>
       <c r="K2">
-        <v>13.38434658509628</v>
+        <v>13.07221393974304</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>11.52176497742399</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>7.832305380056616</v>
       </c>
       <c r="N2">
-        <v>7.655103822230114</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>11.91279442894471</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>12.51167866145948</v>
+        <v>7.691386555546881</v>
       </c>
       <c r="Q2">
-        <v>13.18835670510504</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>11.83279997148632</v>
+      </c>
+      <c r="R2">
+        <v>12.52502040691112</v>
+      </c>
+      <c r="S2">
+        <v>12.96587539840028</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.96869740906331</v>
+        <v>16.82393072015358</v>
       </c>
       <c r="C3">
-        <v>13.54544528356915</v>
+        <v>13.47920963729733</v>
       </c>
       <c r="D3">
-        <v>4.462872507551703</v>
+        <v>4.504392409811082</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>16.31409822871546</v>
+        <v>16.06565218503809</v>
       </c>
       <c r="G3">
-        <v>19.90708013716241</v>
+        <v>18.76633642065422</v>
       </c>
       <c r="H3">
-        <v>2.134020859743061</v>
+        <v>2.098410036385366</v>
       </c>
       <c r="I3">
-        <v>2.579047082412943</v>
+        <v>2.624423134736462</v>
       </c>
       <c r="J3">
-        <v>8.101164852216272</v>
+        <v>8.617203595777683</v>
       </c>
       <c r="K3">
-        <v>13.44411145615773</v>
+        <v>13.1540750458781</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>11.67042464102706</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>7.821558901139321</v>
       </c>
       <c r="N3">
-        <v>7.494257062229062</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>11.36825634487597</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>12.56708323812351</v>
+        <v>7.537333177071655</v>
       </c>
       <c r="Q3">
-        <v>13.0079224102319</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>11.29876361052074</v>
+      </c>
+      <c r="R3">
+        <v>12.55973619688162</v>
+      </c>
+      <c r="S3">
+        <v>12.81528244354279</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.1942442840131</v>
+        <v>16.07668829243664</v>
       </c>
       <c r="C4">
-        <v>13.27274644917955</v>
+        <v>13.15717915235429</v>
       </c>
       <c r="D4">
-        <v>4.332297153925337</v>
+        <v>4.364316469685173</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>16.00839713836293</v>
+        <v>15.78572481277589</v>
       </c>
       <c r="G4">
-        <v>19.47229510458804</v>
+        <v>18.36554471851021</v>
       </c>
       <c r="H4">
-        <v>2.23882823294483</v>
+        <v>2.196562641128518</v>
       </c>
       <c r="I4">
-        <v>2.496801906040897</v>
+        <v>2.550427724509879</v>
       </c>
       <c r="J4">
-        <v>8.088661212049553</v>
+        <v>8.595284917756389</v>
       </c>
       <c r="K4">
-        <v>13.48495829229148</v>
+        <v>13.20734113851749</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>11.76421585074769</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>7.835477507984612</v>
       </c>
       <c r="N4">
-        <v>7.39358867009755</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>11.01989906243374</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>12.60363558086352</v>
+        <v>7.441186866889201</v>
       </c>
       <c r="Q4">
-        <v>12.90182145614806</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>10.9568749583334</v>
+      </c>
+      <c r="R4">
+        <v>12.58393791549797</v>
+      </c>
+      <c r="S4">
+        <v>12.72659279858258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.86239860283919</v>
+        <v>15.75632092864644</v>
       </c>
       <c r="C5">
-        <v>13.16537369384107</v>
+        <v>13.02986654048422</v>
       </c>
       <c r="D5">
-        <v>4.278959841647292</v>
+        <v>4.307026719774557</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>15.87839544722917</v>
+        <v>15.66603153358557</v>
       </c>
       <c r="G5">
-        <v>19.28431230598685</v>
+        <v>18.19135803711074</v>
       </c>
       <c r="H5">
-        <v>2.282779917610899</v>
+        <v>2.237745891606498</v>
       </c>
       <c r="I5">
-        <v>2.485097244063902</v>
+        <v>2.520793144009803</v>
       </c>
       <c r="J5">
-        <v>8.082658832602171</v>
+        <v>8.58500446537559</v>
       </c>
       <c r="K5">
-        <v>13.49858224408685</v>
+        <v>13.22582841119652</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>11.79934411557929</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>7.844120333322106</v>
       </c>
       <c r="N5">
-        <v>7.352156333763202</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>10.87310322759162</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>12.61992024802935</v>
+        <v>7.401689602497179</v>
       </c>
       <c r="Q5">
-        <v>12.8555291681785</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>10.81270258488068</v>
+      </c>
+      <c r="R5">
+        <v>12.59534304301786</v>
+      </c>
+      <c r="S5">
+        <v>12.68715501373385</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.80112844549378</v>
+        <v>15.69696196750271</v>
       </c>
       <c r="C6">
-        <v>13.15410871573085</v>
+        <v>13.01580966482316</v>
       </c>
       <c r="D6">
-        <v>4.271422784552446</v>
+        <v>4.298852386812229</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>15.84981182394963</v>
+        <v>15.63911860495057</v>
       </c>
       <c r="G6">
-        <v>19.2401734908226</v>
+        <v>18.14913191042125</v>
       </c>
       <c r="H6">
-        <v>2.290470221199226</v>
+        <v>2.244969256349391</v>
       </c>
       <c r="I6">
-        <v>2.495830145273592</v>
+        <v>2.517369548772314</v>
       </c>
       <c r="J6">
-        <v>8.079706150181124</v>
+        <v>8.581350456790949</v>
       </c>
       <c r="K6">
-        <v>13.4959734441715</v>
+        <v>13.22411404572649</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>11.80066730193891</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>7.8432197126394</v>
       </c>
       <c r="N6">
-        <v>7.34530105044325</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>10.84673802731097</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>12.62360233918972</v>
+        <v>7.395165665827258</v>
       </c>
       <c r="Q6">
-        <v>12.84271328736918</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>10.786759595412</v>
+      </c>
+      <c r="R6">
+        <v>12.59830164990834</v>
+      </c>
+      <c r="S6">
+        <v>12.67546527260349</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.17527639040356</v>
+        <v>16.05274617679281</v>
       </c>
       <c r="C7">
-        <v>13.28938358865781</v>
+        <v>13.16865693962921</v>
       </c>
       <c r="D7">
-        <v>4.33534482075475</v>
+        <v>4.370122977555595</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>15.98765700767967</v>
+        <v>15.75205092983848</v>
       </c>
       <c r="G7">
-        <v>19.43488482123209</v>
+        <v>18.42597229873484</v>
       </c>
       <c r="H7">
-        <v>2.240310149025791</v>
+        <v>2.198357324862584</v>
       </c>
       <c r="I7">
-        <v>2.499094074697958</v>
+        <v>2.55329991514936</v>
       </c>
       <c r="J7">
-        <v>8.083128395440999</v>
+        <v>8.550846154241524</v>
       </c>
       <c r="K7">
-        <v>13.4716737351806</v>
+        <v>13.19007762986036</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>11.74853256054688</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>7.825445487236858</v>
       </c>
       <c r="N7">
-        <v>7.393181646273963</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>11.01312023601748</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>12.60648659042123</v>
+        <v>7.440824527852687</v>
       </c>
       <c r="Q7">
-        <v>12.88705305403138</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>10.94843994574738</v>
+      </c>
+      <c r="R7">
+        <v>12.58800554591455</v>
+      </c>
+      <c r="S7">
+        <v>12.70241383378367</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.73715267145431</v>
+        <v>17.54909236069943</v>
       </c>
       <c r="C8">
-        <v>13.85385991031835</v>
+        <v>13.82076875310685</v>
       </c>
       <c r="D8">
-        <v>4.602543096899455</v>
+        <v>4.662622835348387</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>16.61665045487377</v>
+        <v>16.29841101485066</v>
       </c>
       <c r="G8">
-        <v>20.32520106943559</v>
+        <v>19.46312285106596</v>
       </c>
       <c r="H8">
-        <v>2.026569809244349</v>
+        <v>1.99898408840428</v>
       </c>
       <c r="I8">
-        <v>2.667748195509749</v>
+        <v>2.704482990522149</v>
       </c>
       <c r="J8">
-        <v>8.109881245557496</v>
+        <v>8.507459124799158</v>
       </c>
       <c r="K8">
-        <v>13.38629553515968</v>
+        <v>13.06823344255703</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>11.54576854290327</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>7.802651897226825</v>
       </c>
       <c r="N8">
-        <v>7.600302708233091</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>11.72200592286642</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>12.53401789527398</v>
+        <v>7.638953688988445</v>
       </c>
       <c r="Q8">
-        <v>13.10681863858833</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>11.64037824892805</v>
+      </c>
+      <c r="R8">
+        <v>12.54428183292461</v>
+      </c>
+      <c r="S8">
+        <v>12.86374199438215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.45386861419323</v>
+        <v>20.16816037062113</v>
       </c>
       <c r="C9">
-        <v>14.87147844341501</v>
+        <v>15.01937014198526</v>
       </c>
       <c r="D9">
-        <v>5.077908549352908</v>
+        <v>5.173794850090594</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>17.87888611531355</v>
+        <v>17.44405418746925</v>
       </c>
       <c r="G9">
-        <v>22.10275437076705</v>
+        <v>21.17383979820558</v>
       </c>
       <c r="H9">
-        <v>1.635706265997335</v>
+        <v>1.633420802061167</v>
       </c>
       <c r="I9">
-        <v>2.976348949110887</v>
+        <v>2.981774574316485</v>
       </c>
       <c r="J9">
-        <v>8.195893449583075</v>
+        <v>8.579300309752959</v>
       </c>
       <c r="K9">
-        <v>13.2772620388904</v>
+        <v>12.89320594157387</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>11.20168949350929</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>7.946475587302032</v>
       </c>
       <c r="N9">
-        <v>7.989738359109774</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>13.00350022310784</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>12.40737721637803</v>
+        <v>8.013452275935252</v>
       </c>
       <c r="Q9">
-        <v>13.59871610342582</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>12.8952139029382</v>
+      </c>
+      <c r="R9">
+        <v>12.47255908725504</v>
+      </c>
+      <c r="S9">
+        <v>13.26938208914548</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.18779226592349</v>
+        <v>21.81937684279326</v>
       </c>
       <c r="C10">
-        <v>15.666458405925</v>
+        <v>15.90499796563995</v>
       </c>
       <c r="D10">
-        <v>5.416607742265361</v>
+        <v>5.548740522204994</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>18.71076200723289</v>
+        <v>18.13155111421726</v>
       </c>
       <c r="G10">
-        <v>23.22782209840061</v>
+        <v>22.75259883285779</v>
       </c>
       <c r="H10">
-        <v>1.743295530942814</v>
+        <v>1.727137095558863</v>
       </c>
       <c r="I10">
-        <v>3.189320911082259</v>
+        <v>3.172456781606324</v>
       </c>
       <c r="J10">
-        <v>8.247540800024034</v>
+        <v>8.403268393729981</v>
       </c>
       <c r="K10">
-        <v>13.1521999923008</v>
+        <v>12.69766523298894</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>10.90483691347003</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>8.073304661969969</v>
       </c>
       <c r="N10">
-        <v>8.142528033513747</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>13.75116986140649</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>12.34818810853636</v>
+        <v>8.156712610810414</v>
       </c>
       <c r="Q10">
-        <v>13.91402830598513</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>13.61768167975938</v>
+      </c>
+      <c r="R10">
+        <v>12.46391839497251</v>
+      </c>
+      <c r="S10">
+        <v>13.47266108131465</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.62534186634298</v>
+        <v>22.22111840320421</v>
       </c>
       <c r="C11">
-        <v>16.74242194496176</v>
+        <v>16.93963186771747</v>
       </c>
       <c r="D11">
-        <v>5.699122343343486</v>
+        <v>5.860959793105788</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>18.40582503462665</v>
+        <v>17.7080864131026</v>
       </c>
       <c r="G11">
-        <v>22.51190122812095</v>
+        <v>23.16278966585076</v>
       </c>
       <c r="H11">
-        <v>2.695639378674719</v>
+        <v>2.680573389962124</v>
       </c>
       <c r="I11">
-        <v>3.254319626647272</v>
+        <v>3.229969681100337</v>
       </c>
       <c r="J11">
-        <v>8.054627760309465</v>
+        <v>7.824013697727612</v>
       </c>
       <c r="K11">
-        <v>12.55641123948124</v>
+        <v>12.10879193962366</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>10.45733156660663</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>7.679317348705545</v>
       </c>
       <c r="N11">
-        <v>7.247456270886269</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>13.08254605554952</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>12.51143319954303</v>
+        <v>7.25176509861215</v>
       </c>
       <c r="Q11">
-        <v>13.51774941253558</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>12.93983339830803</v>
+      </c>
+      <c r="R11">
+        <v>12.66905843523529</v>
+      </c>
+      <c r="S11">
+        <v>12.98979130348471</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.65911915909889</v>
+        <v>22.25535279274187</v>
       </c>
       <c r="C12">
-        <v>17.4968488084904</v>
+        <v>17.6484143410355</v>
       </c>
       <c r="D12">
-        <v>5.865581038471989</v>
+        <v>6.036814821893968</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>17.98753594972954</v>
+        <v>17.26106141578193</v>
       </c>
       <c r="G12">
-        <v>21.69931072915768</v>
+        <v>22.91529653639443</v>
       </c>
       <c r="H12">
-        <v>4.03171361694425</v>
+        <v>4.041492666575945</v>
       </c>
       <c r="I12">
-        <v>3.264583831245802</v>
+        <v>3.237619109711003</v>
       </c>
       <c r="J12">
-        <v>7.884044490873765</v>
+        <v>7.524394769704982</v>
       </c>
       <c r="K12">
-        <v>12.10860084750354</v>
+        <v>11.70079802148564</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>10.18684012925165</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>7.343360254324266</v>
       </c>
       <c r="N12">
-        <v>6.608529548209087</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>12.36096983118895</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>12.6760826663267</v>
+        <v>6.604192811869376</v>
       </c>
       <c r="Q12">
-        <v>13.1260948875087</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>12.22102079283977</v>
+      </c>
+      <c r="R12">
+        <v>12.85169007548808</v>
+      </c>
+      <c r="S12">
+        <v>12.5821986236609</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.36926979509781</v>
+        <v>22.00369774203618</v>
       </c>
       <c r="C13">
-        <v>18.08222319550543</v>
+        <v>18.20315614105494</v>
       </c>
       <c r="D13">
-        <v>5.9613836182497</v>
+        <v>6.120641547069837</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>17.41829887727399</v>
+        <v>16.759920724166</v>
       </c>
       <c r="G13">
-        <v>20.69195614778297</v>
+        <v>21.8645526235125</v>
       </c>
       <c r="H13">
-        <v>5.48908820118154</v>
+        <v>5.495764116062706</v>
       </c>
       <c r="I13">
-        <v>3.237056956745045</v>
+        <v>3.213304516269871</v>
       </c>
       <c r="J13">
-        <v>7.710811593289598</v>
+        <v>7.450908367027689</v>
       </c>
       <c r="K13">
-        <v>11.73034306421352</v>
+        <v>11.39507809574963</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.01083482416009</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>7.030299530346956</v>
       </c>
       <c r="N13">
-        <v>6.168500739465768</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>11.53155928510546</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>12.85025343428476</v>
+        <v>6.15780219511414</v>
       </c>
       <c r="Q13">
-        <v>12.6874321400182</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>11.40691881711877</v>
+      </c>
+      <c r="R13">
+        <v>13.0200900358449</v>
+      </c>
+      <c r="S13">
+        <v>12.20355818707029</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.01250522524533</v>
+        <v>21.6909075479952</v>
       </c>
       <c r="C14">
-        <v>18.42795916256145</v>
+        <v>18.53480305724556</v>
       </c>
       <c r="D14">
-        <v>5.998575232375583</v>
+        <v>6.139646344416806</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>16.94087423663768</v>
+        <v>16.37323575996254</v>
       </c>
       <c r="G14">
-        <v>19.87855771703697</v>
+        <v>20.75216207662859</v>
       </c>
       <c r="H14">
-        <v>6.511324788733368</v>
+        <v>6.516104057959966</v>
       </c>
       <c r="I14">
-        <v>3.201858874084301</v>
+        <v>3.183279917840883</v>
       </c>
       <c r="J14">
-        <v>7.587000087422367</v>
+        <v>7.487783665029727</v>
       </c>
       <c r="K14">
-        <v>11.4999281416085</v>
+        <v>11.22575152207065</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>9.923467514135984</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>6.825531591181308</v>
       </c>
       <c r="N14">
-        <v>6.000875400455662</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>10.8929570413602</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>12.977675823091</v>
+        <v>5.988044320234933</v>
       </c>
       <c r="Q14">
-        <v>12.35371799434445</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>10.78449810047306</v>
+      </c>
+      <c r="R14">
+        <v>13.13182977895067</v>
+      </c>
+      <c r="S14">
+        <v>11.9445980687364</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.85036430736276</v>
+        <v>21.54699421441717</v>
       </c>
       <c r="C15">
-        <v>18.48045335007186</v>
+        <v>18.58782732677566</v>
       </c>
       <c r="D15">
-        <v>5.993727215917817</v>
+        <v>6.126156102885048</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>16.78621779149161</v>
+        <v>16.25907620738089</v>
       </c>
       <c r="G15">
-        <v>19.62712602440914</v>
+        <v>20.31253244626942</v>
       </c>
       <c r="H15">
-        <v>6.747812121897892</v>
+        <v>6.751985741280279</v>
       </c>
       <c r="I15">
-        <v>3.18601734530959</v>
+        <v>3.170452237931575</v>
       </c>
       <c r="J15">
-        <v>7.555130556226615</v>
+        <v>7.534736846599345</v>
       </c>
       <c r="K15">
-        <v>11.45463533557782</v>
+        <v>11.19978723615945</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>9.914291460673033</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>6.77907076124822</v>
       </c>
       <c r="N15">
-        <v>5.980581750850919</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>10.71219574939503</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>13.00944265243791</v>
+        <v>5.96835071933411</v>
       </c>
       <c r="Q15">
-        <v>12.25876430220592</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>10.60997441131891</v>
+      </c>
+      <c r="R15">
+        <v>13.15510326248089</v>
+      </c>
+      <c r="S15">
+        <v>11.88169475164528</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.17266076729305</v>
+        <v>20.9332925285877</v>
       </c>
       <c r="C16">
-        <v>18.06457550651885</v>
+        <v>18.20001288921037</v>
       </c>
       <c r="D16">
-        <v>5.842504497269505</v>
+        <v>5.9395846385889</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>16.50371252592801</v>
+        <v>16.12912528592259</v>
       </c>
       <c r="G16">
-        <v>19.26891070473512</v>
+        <v>19.00622958912595</v>
       </c>
       <c r="H16">
-        <v>6.535895140399985</v>
+        <v>6.537883801677929</v>
       </c>
       <c r="I16">
-        <v>3.102249663309565</v>
+        <v>3.099132844090354</v>
       </c>
       <c r="J16">
-        <v>7.561943504853829</v>
+        <v>7.883526760298507</v>
       </c>
       <c r="K16">
-        <v>11.58302536280497</v>
+        <v>11.36527287221486</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>10.04627453566586</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>6.83375085803743</v>
       </c>
       <c r="N16">
-        <v>5.991049167445459</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>10.51731071243913</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>12.98608887745688</v>
+        <v>5.987828691757828</v>
       </c>
       <c r="Q16">
-        <v>12.18970356056329</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>10.43434560916387</v>
+      </c>
+      <c r="R16">
+        <v>13.09279899870703</v>
+      </c>
+      <c r="S16">
+        <v>11.92669121872476</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.84001920718005</v>
+        <v>20.61986976574916</v>
       </c>
       <c r="C17">
-        <v>17.54874164642449</v>
+        <v>17.7023289056837</v>
       </c>
       <c r="D17">
-        <v>5.703695688733219</v>
+        <v>5.787541027893187</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>16.54998588093537</v>
+        <v>16.22557553141208</v>
       </c>
       <c r="G17">
-        <v>19.44412491437158</v>
+        <v>18.74778962023999</v>
       </c>
       <c r="H17">
-        <v>5.796695474413242</v>
+        <v>5.797484751337458</v>
       </c>
       <c r="I17">
-        <v>3.056769544481456</v>
+        <v>3.060076391670179</v>
       </c>
       <c r="J17">
-        <v>7.63382408761204</v>
+        <v>8.09839626299159</v>
       </c>
       <c r="K17">
-        <v>11.79986153253724</v>
+        <v>11.57806093340782</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.20215017977606</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>6.973495152376273</v>
       </c>
       <c r="N17">
-        <v>6.064789807868882</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>10.71831975418325</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>12.90209409606218</v>
+        <v>6.068276525253076</v>
       </c>
       <c r="Q17">
-        <v>12.31827263292347</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>10.63965178148051</v>
+      </c>
+      <c r="R17">
+        <v>12.99182543140365</v>
+      </c>
+      <c r="S17">
+        <v>12.0898466529202</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.78797549460063</v>
+        <v>20.55833323626779</v>
       </c>
       <c r="C18">
-        <v>16.88711704361958</v>
+        <v>17.06221463804966</v>
       </c>
       <c r="D18">
-        <v>5.559112066963767</v>
+        <v>5.642027212582217</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>16.89446657765158</v>
+        <v>16.5632121583373</v>
       </c>
       <c r="G18">
-        <v>20.11789898684541</v>
+        <v>19.1980232056384</v>
       </c>
       <c r="H18">
-        <v>4.540807534200376</v>
+        <v>4.541162617928149</v>
       </c>
       <c r="I18">
-        <v>3.03767857786567</v>
+        <v>3.042137949281909</v>
       </c>
       <c r="J18">
-        <v>7.772042272045416</v>
+        <v>8.282351670591483</v>
       </c>
       <c r="K18">
-        <v>12.13490311467035</v>
+        <v>11.88013213066889</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.41621993403594</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>7.213662192986932</v>
       </c>
       <c r="N18">
-        <v>6.328803071063506</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>11.28944312928794</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>12.7601037787192</v>
+        <v>6.33791132855182</v>
       </c>
       <c r="Q18">
-        <v>12.63775121081245</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>11.20562560867364</v>
+      </c>
+      <c r="R18">
+        <v>12.84405105616651</v>
+      </c>
+      <c r="S18">
+        <v>12.39982385342199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.94548808314139</v>
+        <v>20.6876452645576</v>
       </c>
       <c r="C19">
-        <v>16.22038372844855</v>
+        <v>16.42100854466366</v>
       </c>
       <c r="D19">
-        <v>5.429676723397528</v>
+        <v>5.519151674663872</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>17.41307915716146</v>
+        <v>17.04084941351655</v>
       </c>
       <c r="G19">
-        <v>21.07113161552169</v>
+        <v>20.03315445287885</v>
       </c>
       <c r="H19">
-        <v>3.048192313985401</v>
+        <v>3.04930668978025</v>
       </c>
       <c r="I19">
-        <v>3.05192997633757</v>
+        <v>3.055632870571424</v>
       </c>
       <c r="J19">
-        <v>7.942817869151727</v>
+        <v>8.445947432777015</v>
       </c>
       <c r="K19">
-        <v>12.53562091807656</v>
+        <v>12.22880719479938</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>10.6590077717603</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>7.511351637605025</v>
       </c>
       <c r="N19">
-        <v>6.886400078269932</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>12.10320761879619</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>12.60090319476905</v>
+        <v>6.899991339041395</v>
       </c>
       <c r="Q19">
-        <v>13.05881084824309</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>12.00823025553851</v>
+      </c>
+      <c r="R19">
+        <v>12.68523443860765</v>
+      </c>
+      <c r="S19">
+        <v>12.78512974595108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.71055547137941</v>
+        <v>21.37732751851387</v>
       </c>
       <c r="C20">
-        <v>15.51595953643609</v>
+        <v>15.75505058925579</v>
       </c>
       <c r="D20">
-        <v>5.340355867348446</v>
+        <v>5.454979715968744</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>18.43830626892862</v>
+        <v>17.93788869773061</v>
       </c>
       <c r="G20">
-        <v>22.83529522643514</v>
+        <v>21.9388378217207</v>
       </c>
       <c r="H20">
-        <v>1.672870330682336</v>
+        <v>1.662514226977201</v>
       </c>
       <c r="I20">
-        <v>3.143228075803172</v>
+        <v>3.136734476013798</v>
       </c>
       <c r="J20">
-        <v>8.215473033685665</v>
+        <v>8.563111969447029</v>
       </c>
       <c r="K20">
-        <v>13.1394228125296</v>
+        <v>12.72155851923398</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>10.96328421862199</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>8.011607812505602</v>
       </c>
       <c r="N20">
-        <v>8.098048527332796</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>13.54183849222653</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>12.37382102653981</v>
+        <v>8.114504807139229</v>
       </c>
       <c r="Q20">
-        <v>13.7863163446368</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>13.4198078431831</v>
+      </c>
+      <c r="R20">
+        <v>12.47238699664903</v>
+      </c>
+      <c r="S20">
+        <v>13.40710613465056</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.03342407470941</v>
+        <v>22.56151042372789</v>
       </c>
       <c r="C21">
-        <v>15.97999414415865</v>
+        <v>16.18590478973275</v>
       </c>
       <c r="D21">
-        <v>5.565595500352822</v>
+        <v>5.751576303474136</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>19.20112815566971</v>
+        <v>18.36888039863403</v>
       </c>
       <c r="G21">
-        <v>23.92168787534791</v>
+        <v>24.91225516066645</v>
       </c>
       <c r="H21">
-        <v>1.877122417870611</v>
+        <v>1.847249545556794</v>
       </c>
       <c r="I21">
-        <v>3.30804923541214</v>
+        <v>3.277594679413621</v>
       </c>
       <c r="J21">
-        <v>8.301319262866235</v>
+        <v>7.828330398316544</v>
       </c>
       <c r="K21">
-        <v>13.15513434104645</v>
+        <v>12.58627990268673</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>10.75078501214189</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>8.140514467563117</v>
       </c>
       <c r="N21">
-        <v>8.400590567649409</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>14.27197486849206</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>12.30225480870229</v>
+        <v>8.412431872173798</v>
       </c>
       <c r="Q21">
-        <v>14.13743856191544</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>14.10306974625923</v>
+      </c>
+      <c r="R21">
+        <v>12.46591718670055</v>
+      </c>
+      <c r="S21">
+        <v>13.49463345108346</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.85392601388523</v>
+        <v>23.29269671007606</v>
       </c>
       <c r="C22">
-        <v>16.29526597481545</v>
+        <v>16.47144681378392</v>
       </c>
       <c r="D22">
-        <v>5.711457902677724</v>
+        <v>5.94499509611309</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>19.67629758240193</v>
+        <v>18.61912464962138</v>
       </c>
       <c r="G22">
-        <v>24.58872890385903</v>
+        <v>26.89469765010035</v>
       </c>
       <c r="H22">
-        <v>2.003911755771963</v>
+        <v>1.961712482364802</v>
       </c>
       <c r="I22">
-        <v>3.408132975626078</v>
+        <v>3.361274345070804</v>
       </c>
       <c r="J22">
-        <v>8.354696068756814</v>
+        <v>7.364523379506008</v>
       </c>
       <c r="K22">
-        <v>13.15628655279744</v>
+        <v>12.4827147507625</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>10.60504670385981</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>8.221289201697026</v>
       </c>
       <c r="N22">
-        <v>8.532819830659655</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>14.67947003319378</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>12.26316068483815</v>
+        <v>8.542185382690496</v>
       </c>
       <c r="Q22">
-        <v>14.35557816404082</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>14.47978761399878</v>
+      </c>
+      <c r="R22">
+        <v>12.47288941466077</v>
+      </c>
+      <c r="S22">
+        <v>13.53041054683048</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.43204864745518</v>
+        <v>22.92793936223551</v>
       </c>
       <c r="C23">
-        <v>16.10882057040766</v>
+        <v>16.31337777159344</v>
       </c>
       <c r="D23">
-        <v>5.630459980457782</v>
+        <v>5.832727441685347</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>19.44172953167063</v>
+        <v>18.53370244971263</v>
       </c>
       <c r="G23">
-        <v>24.26688945128025</v>
+        <v>25.65805326847913</v>
       </c>
       <c r="H23">
-        <v>1.937291074107819</v>
+        <v>1.90223300347069</v>
       </c>
       <c r="I23">
-        <v>3.351327954191115</v>
+        <v>3.312592221859892</v>
       </c>
       <c r="J23">
-        <v>8.332053691212685</v>
+        <v>7.687004277141621</v>
       </c>
       <c r="K23">
-        <v>13.17089290888236</v>
+        <v>12.56377596566829</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>10.69852280344807</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>8.201267340298509</v>
       </c>
       <c r="N23">
-        <v>8.462168558812769</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>14.46783641600681</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>12.2796936576963</v>
+        <v>8.47252437580584</v>
       </c>
       <c r="Q23">
-        <v>14.25387823257494</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>14.28802156326513</v>
+      </c>
+      <c r="R23">
+        <v>12.4603920249693</v>
+      </c>
+      <c r="S23">
+        <v>13.54933325463457</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.73570519659834</v>
+        <v>21.40058312878726</v>
       </c>
       <c r="C24">
-        <v>15.41614928642205</v>
+        <v>15.65400423183506</v>
       </c>
       <c r="D24">
-        <v>5.318789803427646</v>
+        <v>5.433441798489684</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>18.51623489250041</v>
+        <v>18.01377012327618</v>
       </c>
       <c r="G24">
-        <v>22.9804732046512</v>
+        <v>22.06089538822415</v>
       </c>
       <c r="H24">
-        <v>1.678012121182494</v>
+        <v>1.667546633704886</v>
       </c>
       <c r="I24">
-        <v>3.137774756725117</v>
+        <v>3.129112107937189</v>
       </c>
       <c r="J24">
-        <v>8.242867259807202</v>
+        <v>8.594171925620595</v>
       </c>
       <c r="K24">
-        <v>13.21179057825122</v>
+        <v>12.78751673424733</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>11.01022133516637</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>8.065851765930649</v>
       </c>
       <c r="N24">
-        <v>8.190092948491818</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>13.62908239026547</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>12.35424781939975</v>
+        <v>8.206984235470751</v>
       </c>
       <c r="Q24">
-        <v>13.85233984717803</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>13.50622261162702</v>
+      </c>
+      <c r="R24">
+        <v>12.45115110613762</v>
+      </c>
+      <c r="S24">
+        <v>13.47082155545686</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.73631776813637</v>
+        <v>19.48174099913687</v>
       </c>
       <c r="C25">
-        <v>14.63356750017839</v>
+        <v>14.744687313587</v>
       </c>
       <c r="D25">
-        <v>4.960103601574033</v>
+        <v>5.043315079959</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>17.50752175869462</v>
+        <v>17.12131382635899</v>
       </c>
       <c r="G25">
-        <v>21.56950779713044</v>
+        <v>20.52891753981485</v>
       </c>
       <c r="H25">
-        <v>1.739722913624916</v>
+        <v>1.730284079732237</v>
       </c>
       <c r="I25">
-        <v>2.899631582997358</v>
+        <v>2.915563058326049</v>
       </c>
       <c r="J25">
-        <v>8.160354713641276</v>
+        <v>8.603435876430943</v>
       </c>
       <c r="K25">
-        <v>13.27868309641516</v>
+        <v>12.92074209016274</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>11.28003842105908</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>7.876535841708932</v>
       </c>
       <c r="N25">
-        <v>7.886708979986139</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>12.66235325786634</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>12.4449676051736</v>
+        <v>7.914146917143578</v>
       </c>
       <c r="Q25">
-        <v>13.43755710075326</v>
+        <v>12.56324387962016</v>
+      </c>
+      <c r="R25">
+        <v>12.4938065655984</v>
+      </c>
+      <c r="S25">
+        <v>13.1453720033936</v>
       </c>
     </row>
   </sheetData>
